--- a/visualizations/elec_consumption_per_scenario_year.xlsx
+++ b/visualizations/elec_consumption_per_scenario_year.xlsx
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>265.2633529205665</v>
+        <v>265.5456513865531</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>584.3703695905554</v>
+        <v>589.5320418222899</v>
       </c>
     </row>
     <row r="4">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>443.2949009689315</v>
+        <v>443.2966924833537</v>
       </c>
     </row>
     <row r="5">
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>889.6215222019873</v>
+        <v>899.4738995016795</v>
       </c>
     </row>
     <row r="6">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>687.6709012792104</v>
+        <v>691.5432420200767</v>
       </c>
     </row>
     <row r="7">
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1338.188834912448</v>
+        <v>1352.025442359218</v>
       </c>
     </row>
     <row r="8">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>663.3968764126951</v>
+        <v>667.523282187033</v>
       </c>
     </row>
     <row r="9">
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1339.972158002524</v>
+        <v>1353.683339588887</v>
       </c>
     </row>
     <row r="10">
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>652.926960019174</v>
+        <v>655.1823259304065</v>
       </c>
     </row>
     <row r="11">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1344.35553100003</v>
+        <v>1358.751226194119</v>
       </c>
     </row>
     <row r="12">
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>663.692412715444</v>
+        <v>666.2626593098236</v>
       </c>
     </row>
     <row r="13">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1347.233064462485</v>
+        <v>1361.274557605164</v>
       </c>
     </row>
     <row r="14">
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>258.0424420147162</v>
+        <v>259.3455254636514</v>
       </c>
     </row>
     <row r="15">
@@ -774,7 +774,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>580.8075894677278</v>
+        <v>588.4337792438056</v>
       </c>
     </row>
     <row r="16">
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>434.3331114559094</v>
+        <v>437.4912698357887</v>
       </c>
     </row>
     <row r="17">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>873.9750146000071</v>
+        <v>901.2630347917381</v>
       </c>
     </row>
     <row r="18">
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>677.4178223382225</v>
+        <v>683.8709385716926</v>
       </c>
     </row>
     <row r="19">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1318.986775420452</v>
+        <v>1355.703472469077</v>
       </c>
     </row>
     <row r="20">
@@ -889,7 +889,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>654.9398222155464</v>
+        <v>661.6844349494938</v>
       </c>
     </row>
     <row r="21">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1320.606056634977</v>
+        <v>1357.724843313913</v>
       </c>
     </row>
     <row r="22">
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>645.7524887279835</v>
+        <v>650.094773449385</v>
       </c>
     </row>
     <row r="23">
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1323.782214340173</v>
+        <v>1361.255939922193</v>
       </c>
     </row>
     <row r="24">
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>655.5947943822963</v>
+        <v>660.8341875242111</v>
       </c>
     </row>
     <row r="25">
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1326.361499687035</v>
+        <v>1363.754608182676</v>
       </c>
     </row>
     <row r="26">
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>271.9224457527052</v>
+        <v>271.3770852062477</v>
       </c>
     </row>
     <row r="27">
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>589.979357719156</v>
+        <v>591.0093715659115</v>
       </c>
     </row>
     <row r="28">
@@ -1073,7 +1073,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>453.7186142729684</v>
+        <v>449.9919840453405</v>
       </c>
     </row>
     <row r="29">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>917.3593500337898</v>
+        <v>897.5656524486238</v>
       </c>
     </row>
     <row r="30">
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>700.380854913198</v>
+        <v>700.056704912234</v>
       </c>
     </row>
     <row r="31">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1370.884165069632</v>
+        <v>1349.898180609018</v>
       </c>
     </row>
     <row r="32">
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>674.5478919042554</v>
+        <v>674.3603725358342</v>
       </c>
     </row>
     <row r="33">
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1372.601002129795</v>
+        <v>1351.246656995889</v>
       </c>
     </row>
     <row r="34">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>663.8637234586894</v>
+        <v>662.0351287483487</v>
       </c>
     </row>
     <row r="35">
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1377.073915560003</v>
+        <v>1355.328814907259</v>
       </c>
     </row>
     <row r="36">
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>675.1584670554672</v>
+        <v>673.293346349934</v>
       </c>
     </row>
     <row r="37">
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1379.965610342676</v>
+        <v>1358.754901981968</v>
       </c>
     </row>
     <row r="38">
@@ -1303,7 +1303,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>265.2614773484588</v>
+        <v>265.5454026320717</v>
       </c>
     </row>
     <row r="39">
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>584.3696441678319</v>
+        <v>589.5320418222899</v>
       </c>
     </row>
     <row r="40">
@@ -1349,7 +1349,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>443.294823867357</v>
+        <v>443.2966565158862</v>
       </c>
     </row>
     <row r="41">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>889.621082007259</v>
+        <v>899.4738995016795</v>
       </c>
     </row>
     <row r="42">
@@ -1395,7 +1395,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>687.667744607286</v>
+        <v>691.5327172167039</v>
       </c>
     </row>
     <row r="43">
@@ -1418,7 +1418,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1338.18995842458</v>
+        <v>1352.026199446103</v>
       </c>
     </row>
     <row r="44">
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>663.3964417145044</v>
+        <v>667.523282187033</v>
       </c>
     </row>
     <row r="45">
@@ -1464,7 +1464,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1339.973433662505</v>
+        <v>1353.683339588887</v>
       </c>
     </row>
     <row r="46">
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>652.9203585451759</v>
+        <v>655.176251805821</v>
       </c>
     </row>
     <row r="47">
@@ -1510,7 +1510,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1344.356791435791</v>
+        <v>1358.751226194119</v>
       </c>
     </row>
     <row r="48">
@@ -1533,7 +1533,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>663.6773890431424</v>
+        <v>666.2452326342341</v>
       </c>
     </row>
     <row r="49">
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1347.234508207495</v>
+        <v>1361.274557605164</v>
       </c>
     </row>
     <row r="50">
@@ -1579,7 +1579,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>265.3231310953698</v>
+        <v>265.5456513865531</v>
       </c>
     </row>
     <row r="51">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>584.248748199721</v>
+        <v>589.5320418222899</v>
       </c>
     </row>
     <row r="52">
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>442.9169078455246</v>
+        <v>443.3018486474044</v>
       </c>
     </row>
     <row r="53">
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>887.8965475243573</v>
+        <v>899.4738995016795</v>
       </c>
     </row>
     <row r="54">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>683.2139197657199</v>
+        <v>687.1056145761697</v>
       </c>
     </row>
     <row r="55">
@@ -1694,7 +1694,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1337.855996291821</v>
+        <v>1353.870290719695</v>
       </c>
     </row>
     <row r="56">
@@ -1717,7 +1717,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>663.4603903749471</v>
+        <v>667.7901591952459</v>
       </c>
     </row>
     <row r="57">
@@ -1740,7 +1740,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1337.932391218854</v>
+        <v>1353.684859125362</v>
       </c>
     </row>
     <row r="58">
@@ -1763,7 +1763,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>652.8217478021191</v>
+        <v>655.1823259304065</v>
       </c>
     </row>
     <row r="59">
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1342.341495604137</v>
+        <v>1358.751226194119</v>
       </c>
     </row>
     <row r="60">
@@ -1809,7 +1809,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>663.5953293401176</v>
+        <v>666.2626593098236</v>
       </c>
     </row>
     <row r="61">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1345.156920800606</v>
+        <v>1361.274557605164</v>
       </c>
     </row>
     <row r="62">
@@ -1855,7 +1855,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>264.6892118767356</v>
+        <v>268.2559759248603</v>
       </c>
     </row>
     <row r="63">
@@ -1878,7 +1878,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>626.8018471133502</v>
+        <v>635.4142541018113</v>
       </c>
     </row>
     <row r="64">
@@ -1901,7 +1901,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>438.2887806013492</v>
+        <v>445.061371044493</v>
       </c>
     </row>
     <row r="65">
@@ -1924,7 +1924,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>931.9609744205922</v>
+        <v>949.1426002026607</v>
       </c>
     </row>
     <row r="66">
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>680.6141751989578</v>
+        <v>704.2261040227453</v>
       </c>
     </row>
     <row r="67">
@@ -1970,7 +1970,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1380.611086504231</v>
+        <v>1406.764157038074</v>
       </c>
     </row>
     <row r="68">
@@ -1993,7 +1993,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>660.4575390539874</v>
+        <v>683.9780459268378</v>
       </c>
     </row>
     <row r="69">
@@ -2016,7 +2016,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1380.958414874747</v>
+        <v>1407.781216503659</v>
       </c>
     </row>
     <row r="70">
@@ -2039,7 +2039,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>654.8699231843699</v>
+        <v>676.368699832905</v>
       </c>
     </row>
     <row r="71">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>1383.218596492738</v>
+        <v>1410.175849299211</v>
       </c>
     </row>
     <row r="72">
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>665.1709023473495</v>
+        <v>688.3220746897769</v>
       </c>
     </row>
     <row r="73">
@@ -2108,7 +2108,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1385.38871844413</v>
+        <v>1413.64644787318</v>
       </c>
     </row>
     <row r="74">
@@ -2131,7 +2131,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>260.0919457411848</v>
+        <v>260.2084528345717</v>
       </c>
     </row>
     <row r="75">
@@ -2154,7 +2154,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>590.9369614093659</v>
+        <v>598.3291916541416</v>
       </c>
     </row>
     <row r="76">
@@ -2177,7 +2177,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>431.52686827512</v>
+        <v>436.817050478825</v>
       </c>
     </row>
     <row r="77">
@@ -2200,7 +2200,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>857.592360499398</v>
+        <v>899.2091729549448</v>
       </c>
     </row>
     <row r="78">
@@ -2223,7 +2223,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>667.8575176163673</v>
+        <v>680.6556109909372</v>
       </c>
     </row>
     <row r="79">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1293.3052234283</v>
+        <v>1353.727217422698</v>
       </c>
     </row>
     <row r="80">
@@ -2269,7 +2269,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>645.3331671719031</v>
+        <v>657.5929653674532</v>
       </c>
     </row>
     <row r="81">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1294.954186429632</v>
+        <v>1356.384553840777</v>
       </c>
     </row>
     <row r="82">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>638.3176739685891</v>
+        <v>647.5947692437305</v>
       </c>
     </row>
     <row r="83">
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>1298.763290609676</v>
+        <v>1359.808699368886</v>
       </c>
     </row>
     <row r="84">
@@ -2361,7 +2361,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>650.4658324909585</v>
+        <v>661.4430818501958</v>
       </c>
     </row>
     <row r="85">
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1301.720168462691</v>
+        <v>1363.770640581087</v>
       </c>
     </row>
     <row r="86">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>271.1249146137562</v>
+        <v>265.5456513865531</v>
       </c>
     </row>
     <row r="87">
@@ -2430,7 +2430,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>642.529788161847</v>
+        <v>589.5320418222899</v>
       </c>
     </row>
     <row r="88">
@@ -2453,7 +2453,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>448.9248741332941</v>
+        <v>443.2966924833536</v>
       </c>
     </row>
     <row r="89">
@@ -2476,7 +2476,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>983.1901140876024</v>
+        <v>899.4738995016795</v>
       </c>
     </row>
     <row r="90">
@@ -2499,7 +2499,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>708.5350880725454</v>
+        <v>684.0549763817854</v>
       </c>
     </row>
     <row r="91">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1445.219092029554</v>
+        <v>1351.925070599953</v>
       </c>
     </row>
     <row r="92">
@@ -2545,7 +2545,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>895.450078921312</v>
+        <v>875.3554429254848</v>
       </c>
     </row>
     <row r="93">
@@ -2568,7 +2568,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1474.942896107044</v>
+        <v>1380.951423377625</v>
       </c>
     </row>
     <row r="94">
@@ -2591,7 +2591,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>680.4404600005095</v>
+        <v>653.3492068632848</v>
       </c>
     </row>
     <row r="95">
@@ -2614,7 +2614,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1450.123438878323</v>
+        <v>1357.702164795116</v>
       </c>
     </row>
     <row r="96">
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>693.4288725708418</v>
+        <v>666.2626593098236</v>
       </c>
     </row>
     <row r="97">
@@ -2660,7 +2660,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1455.173738398411</v>
+        <v>1361.274557605164</v>
       </c>
     </row>
     <row r="98">
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>265.2628670061251</v>
+        <v>265.5456513865531</v>
       </c>
     </row>
     <row r="99">
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>584.3621304113566</v>
+        <v>589.5320418222899</v>
       </c>
     </row>
     <row r="100">
@@ -2729,7 +2729,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>443.2186487574753</v>
+        <v>443.2966924833536</v>
       </c>
     </row>
     <row r="101">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>889.1072463259433</v>
+        <v>899.4738995016795</v>
       </c>
     </row>
     <row r="102">
@@ -2775,7 +2775,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>678.6809680238878</v>
+        <v>691.5432420200767</v>
       </c>
     </row>
     <row r="103">
@@ -2798,7 +2798,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1336.573826909842</v>
+        <v>1352.025442359218</v>
       </c>
     </row>
     <row r="104">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>655.6940877266453</v>
+        <v>669.0968493672809</v>
       </c>
     </row>
     <row r="105">
@@ -2844,7 +2844,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>1338.357081154584</v>
+        <v>1353.693246858925</v>
       </c>
     </row>
     <row r="106">
@@ -2867,7 +2867,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>763.1251161759358</v>
+        <v>781.2464795465402</v>
       </c>
     </row>
     <row r="107">
@@ -2890,7 +2890,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>1346.83214060789</v>
+        <v>1362.117090139415</v>
       </c>
     </row>
     <row r="108">
@@ -2913,7 +2913,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>777.7396619635193</v>
+        <v>794.2000031649388</v>
       </c>
     </row>
     <row r="109">
@@ -2936,7 +2936,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1349.450042860987</v>
+        <v>1364.380930188842</v>
       </c>
     </row>
     <row r="110">
@@ -2959,7 +2959,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>265.6389797604615</v>
+        <v>265.7450617909329</v>
       </c>
     </row>
     <row r="111">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>585.3555575098277</v>
+        <v>589.5320418222899</v>
       </c>
     </row>
     <row r="112">
@@ -3005,7 +3005,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>439.8402944422193</v>
+        <v>442.487657590444</v>
       </c>
     </row>
     <row r="113">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>985.8627489700202</v>
+        <v>1010.825455982119</v>
       </c>
     </row>
     <row r="114">
@@ -3051,7 +3051,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>687.4296658869803</v>
+        <v>691.7084020818437</v>
       </c>
     </row>
     <row r="115">
@@ -3074,7 +3074,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>1329.146750872661</v>
+        <v>1352.026765404039</v>
       </c>
     </row>
     <row r="116">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>662.9846996603424</v>
+        <v>667.523282187033</v>
       </c>
     </row>
     <row r="117">
@@ -3120,7 +3120,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1330.834610585884</v>
+        <v>1353.683339588887</v>
       </c>
     </row>
     <row r="118">
@@ -3143,7 +3143,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>652.5875834567915</v>
+        <v>655.1823259304065</v>
       </c>
     </row>
     <row r="119">
@@ -3166,7 +3166,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1335.252119864577</v>
+        <v>1358.751226194119</v>
       </c>
     </row>
     <row r="120">
@@ -3189,7 +3189,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>663.4529109005596</v>
+        <v>666.2626593098236</v>
       </c>
     </row>
     <row r="121">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1337.994033134523</v>
+        <v>1361.274557605164</v>
       </c>
     </row>
     <row r="122">
@@ -3235,7 +3235,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>265.2627861296899</v>
+        <v>265.5456513865531</v>
       </c>
     </row>
     <row r="123">
@@ -3258,7 +3258,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>584.3499784063281</v>
+        <v>589.5320418222899</v>
       </c>
     </row>
     <row r="124">
@@ -3281,7 +3281,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>443.1805766648486</v>
+        <v>443.2966924833536</v>
       </c>
     </row>
     <row r="125">
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>888.6732688441837</v>
+        <v>899.4738995016795</v>
       </c>
     </row>
     <row r="126">
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>687.4538493070779</v>
+        <v>691.5432420200767</v>
       </c>
     </row>
     <row r="127">
@@ -3350,7 +3350,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1334.557329999631</v>
+        <v>1352.025442359218</v>
       </c>
     </row>
     <row r="128">
@@ -3373,7 +3373,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>662.9484252931414</v>
+        <v>667.523282187033</v>
       </c>
     </row>
     <row r="129">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1336.004947899234</v>
+        <v>1353.683339588887</v>
       </c>
     </row>
     <row r="130">
@@ -3419,7 +3419,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>653.9580158128723</v>
+        <v>656.3811889335448</v>
       </c>
     </row>
     <row r="131">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1422.314357535483</v>
+        <v>1440.373841920942</v>
       </c>
     </row>
     <row r="132">
@@ -3465,7 +3465,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>664.6853297882479</v>
+        <v>667.5258294213246</v>
       </c>
     </row>
     <row r="133">
@@ -3488,7 +3488,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1424.894936202565</v>
+        <v>1442.99758913068</v>
       </c>
     </row>
     <row r="134">
@@ -3511,7 +3511,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>231.8380993529008</v>
+        <v>226.0996014169014</v>
       </c>
     </row>
     <row r="135">
@@ -3534,7 +3534,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>528.0123047825008</v>
+        <v>522.6295847563608</v>
       </c>
     </row>
     <row r="136">
@@ -3557,7 +3557,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>389.4677669864965</v>
+        <v>380.9846208137333</v>
       </c>
     </row>
     <row r="137">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>811.9441792517806</v>
+        <v>793.2848109505443</v>
       </c>
     </row>
     <row r="138">
@@ -3603,7 +3603,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>607.8835900728184</v>
+        <v>589.1048298259693</v>
       </c>
     </row>
     <row r="139">
@@ -3626,7 +3626,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>1218.209511768754</v>
+        <v>1189.873532578977</v>
       </c>
     </row>
     <row r="140">
@@ -3649,7 +3649,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>583.2865301343897</v>
+        <v>563.9442141410627</v>
       </c>
     </row>
     <row r="141">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>1219.991949090261</v>
+        <v>1191.819400026682</v>
       </c>
     </row>
     <row r="142">
@@ -3695,7 +3695,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>573.1228087029075</v>
+        <v>557.4530238996706</v>
       </c>
     </row>
     <row r="143">
@@ -3718,7 +3718,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1223.651512691308</v>
+        <v>1197.531235196136</v>
       </c>
     </row>
     <row r="144">
@@ -3741,7 +3741,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>583.0619876942825</v>
+        <v>557.9567651170499</v>
       </c>
     </row>
     <row r="145">
@@ -3764,7 +3764,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>1226.315314599759</v>
+        <v>1200.048518286611</v>
       </c>
     </row>
     <row r="146">
@@ -3787,7 +3787,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>234.3463184689813</v>
+        <v>384.2640296649747</v>
       </c>
     </row>
     <row r="147">
@@ -3810,7 +3810,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>728.1013601701844</v>
+        <v>590.1727841866493</v>
       </c>
     </row>
     <row r="148">
@@ -3833,7 +3833,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>470.670535171969</v>
+        <v>594.3650692887862</v>
       </c>
     </row>
     <row r="149">
@@ -3856,7 +3856,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>1096.444668105743</v>
+        <v>921.1035259929135</v>
       </c>
     </row>
     <row r="150">
@@ -3879,7 +3879,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>923.7756688805829</v>
+        <v>863.9077204821926</v>
       </c>
     </row>
     <row r="151">
@@ -3902,7 +3902,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>1560.880140271423</v>
+        <v>1375.624707325386</v>
       </c>
     </row>
     <row r="152">
@@ -3925,7 +3925,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>920.8132246188335</v>
+        <v>859.7041400798131</v>
       </c>
     </row>
     <row r="153">
@@ -3948,7 +3948,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>1562.965355400218</v>
+        <v>1378.030452723956</v>
       </c>
     </row>
     <row r="154">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>910.3103622801012</v>
+        <v>858.8188929204312</v>
       </c>
     </row>
     <row r="155">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1564.463232142241</v>
+        <v>1383.169666137221</v>
       </c>
     </row>
     <row r="156">
@@ -4017,7 +4017,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>911.3389794471068</v>
+        <v>864.0473368705351</v>
       </c>
     </row>
     <row r="157">
@@ -4040,7 +4040,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>1566.578414355979</v>
+        <v>1385.100086508718</v>
       </c>
     </row>
     <row r="158">
@@ -4063,7 +4063,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>433.6212604486387</v>
+        <v>384.2640296649747</v>
       </c>
     </row>
     <row r="159">
@@ -4086,7 +4086,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>732.6173365738842</v>
+        <v>590.1727841866493</v>
       </c>
     </row>
     <row r="160">
@@ -4109,7 +4109,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>650.8950716799685</v>
+        <v>595.1037437702283</v>
       </c>
     </row>
     <row r="161">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>1104.722946739062</v>
+        <v>922.8871948587702</v>
       </c>
     </row>
     <row r="162">
@@ -4155,7 +4155,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>715.531662684847</v>
+        <v>701.3094180246613</v>
       </c>
     </row>
     <row r="163">
@@ -4178,7 +4178,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1495.004650245393</v>
+        <v>1351.514171797266</v>
       </c>
     </row>
     <row r="164">
@@ -4201,7 +4201,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>694.5261189078446</v>
+        <v>679.7029494565317</v>
       </c>
     </row>
     <row r="165">
@@ -4224,7 +4224,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1496.177331952397</v>
+        <v>1352.786358922184</v>
       </c>
     </row>
     <row r="166">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>671.9587362324691</v>
+        <v>654.4030229598301</v>
       </c>
     </row>
     <row r="167">
@@ -4270,7 +4270,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>1501.658531798796</v>
+        <v>1358.740629152055</v>
       </c>
     </row>
     <row r="168">
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>682.3087986193045</v>
+        <v>666.2626593098236</v>
       </c>
     </row>
     <row r="169">
@@ -4316,7 +4316,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1505.251324045102</v>
+        <v>1361.274557605164</v>
       </c>
     </row>
     <row r="170">
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>254.3245625034129</v>
+        <v>254.9540867619101</v>
       </c>
     </row>
     <row r="171">
@@ -4362,7 +4362,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>587.5706264175602</v>
+        <v>597.2980041318515</v>
       </c>
     </row>
     <row r="172">
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>425.5566997322931</v>
+        <v>431.8446770757379</v>
       </c>
     </row>
     <row r="173">
@@ -4408,7 +4408,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>851.5562087885118</v>
+        <v>899.947470049531</v>
       </c>
     </row>
     <row r="174">
@@ -4431,7 +4431,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>660.4404430354572</v>
+        <v>674.1637840144299</v>
       </c>
     </row>
     <row r="175">
@@ -4454,7 +4454,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>1284.271170217348</v>
+        <v>1355.914541678181</v>
       </c>
     </row>
     <row r="176">
@@ -4477,7 +4477,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>641.229302570311</v>
+        <v>654.0008872226605</v>
       </c>
     </row>
     <row r="177">
@@ -4500,7 +4500,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1285.309184128007</v>
+        <v>1357.747798292522</v>
       </c>
     </row>
     <row r="178">
@@ -4523,7 +4523,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>634.6803971083575</v>
+        <v>644.7118384643431</v>
       </c>
     </row>
     <row r="179">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>1288.527272261475</v>
+        <v>1361.375584939359</v>
       </c>
     </row>
     <row r="180">
@@ -4569,7 +4569,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>646.7133559613735</v>
+        <v>658.140401990687</v>
       </c>
     </row>
     <row r="181">
@@ -4592,7 +4592,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>1290.961173480415</v>
+        <v>1364.704413528763</v>
       </c>
     </row>
     <row r="182">
@@ -4615,7 +4615,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>260.7123917170079</v>
+        <v>265.5456513865531</v>
       </c>
     </row>
     <row r="183">
@@ -4638,7 +4638,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>586.286983112571</v>
+        <v>589.5320418222899</v>
       </c>
     </row>
     <row r="184">
@@ -4661,7 +4661,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>437.3434717570196</v>
+        <v>443.2966924833536</v>
       </c>
     </row>
     <row r="185">
@@ -4684,7 +4684,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>878.0187838474299</v>
+        <v>899.4738995016795</v>
       </c>
     </row>
     <row r="186">
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>677.0259259158279</v>
+        <v>691.5432420200767</v>
       </c>
     </row>
     <row r="187">
@@ -4730,7 +4730,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>1326.827414549314</v>
+        <v>1352.025442359218</v>
       </c>
     </row>
     <row r="188">
@@ -4753,7 +4753,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>654.0089629784129</v>
+        <v>667.523282187033</v>
       </c>
     </row>
     <row r="189">
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>1328.614278328235</v>
+        <v>1353.683339588887</v>
       </c>
     </row>
     <row r="190">
@@ -4799,7 +4799,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>643.9652105305579</v>
+        <v>655.1823259304065</v>
       </c>
     </row>
     <row r="191">
@@ -4822,7 +4822,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>1333.353954369966</v>
+        <v>1358.751226194119</v>
       </c>
     </row>
     <row r="192">
@@ -4845,7 +4845,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>652.7578531328559</v>
+        <v>666.2626593098236</v>
       </c>
     </row>
     <row r="193">
@@ -4868,7 +4868,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>1335.961196946193</v>
+        <v>1361.274557605164</v>
       </c>
     </row>
   </sheetData>

--- a/visualizations/elec_consumption_per_scenario_year.xlsx
+++ b/visualizations/elec_consumption_per_scenario_year.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>265.2633529205665</v>
+        <v>266.527672368178</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>584.3703695905554</v>
+        <v>584.5536604936383</v>
       </c>
     </row>
     <row r="4">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>443.2949009689315</v>
+        <v>567.9666863103248</v>
       </c>
     </row>
     <row r="5">
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>889.6215222019873</v>
+        <v>1126.324221750462</v>
       </c>
     </row>
     <row r="6">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>687.6709012792104</v>
+        <v>818.1949278344659</v>
       </c>
     </row>
     <row r="7">
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1338.188834912448</v>
+        <v>1578.747577773757</v>
       </c>
     </row>
     <row r="8">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>663.3968764126951</v>
+        <v>793.8889152819168</v>
       </c>
     </row>
     <row r="9">
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1339.972158002524</v>
+        <v>1580.499161230688</v>
       </c>
     </row>
     <row r="10">
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>652.926960019174</v>
+        <v>782.5306459973657</v>
       </c>
     </row>
     <row r="11">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1344.35553100003</v>
+        <v>1585.390919286712</v>
       </c>
     </row>
     <row r="12">
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>663.692412715444</v>
+        <v>795.7781330605011</v>
       </c>
     </row>
     <row r="13">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1347.233064462485</v>
+        <v>1588.681543655875</v>
       </c>
     </row>
     <row r="14">
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>258.0424420147162</v>
+        <v>259.5591280471727</v>
       </c>
     </row>
     <row r="15">
@@ -774,7 +774,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>580.8075894677278</v>
+        <v>580.4454215898681</v>
       </c>
     </row>
     <row r="16">
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>434.3331114559094</v>
+        <v>558.775392198645</v>
       </c>
     </row>
     <row r="17">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>873.9750146000071</v>
+        <v>1106.239406901178</v>
       </c>
     </row>
     <row r="18">
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>677.4178223382225</v>
+        <v>807.2062462060974</v>
       </c>
     </row>
     <row r="19">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1318.986775420452</v>
+        <v>1553.96512848665</v>
       </c>
     </row>
     <row r="20">
@@ -889,7 +889,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>654.9398222155464</v>
+        <v>784.4265302827013</v>
       </c>
     </row>
     <row r="21">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1320.606056634977</v>
+        <v>1555.635016718438</v>
       </c>
     </row>
     <row r="22">
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>645.7524887279835</v>
+        <v>774.1766537979655</v>
       </c>
     </row>
     <row r="23">
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1323.782214340173</v>
+        <v>1559.083393596061</v>
       </c>
     </row>
     <row r="24">
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>655.5947943822963</v>
+        <v>786.4358660519553</v>
       </c>
     </row>
     <row r="25">
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1326.361499687035</v>
+        <v>1561.871718567365</v>
       </c>
     </row>
     <row r="26">
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>271.9224457527052</v>
+        <v>273.2335374611779</v>
       </c>
     </row>
     <row r="27">
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>589.979357719156</v>
+        <v>589.7940312051385</v>
       </c>
     </row>
     <row r="28">
@@ -1073,7 +1073,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>453.7186142729684</v>
+        <v>579.3834747829301</v>
       </c>
     </row>
     <row r="29">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>917.3593500337898</v>
+        <v>1160.225848971242</v>
       </c>
     </row>
     <row r="30">
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>700.380854913198</v>
+        <v>830.115196204093</v>
       </c>
     </row>
     <row r="31">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1370.884165069632</v>
+        <v>1617.608487952521</v>
       </c>
     </row>
     <row r="32">
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>674.5478919042554</v>
+        <v>804.3952658385265</v>
       </c>
     </row>
     <row r="33">
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1372.601002129795</v>
+        <v>1619.384764072982</v>
       </c>
     </row>
     <row r="34">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>663.8637234586894</v>
+        <v>792.7059866894134</v>
       </c>
     </row>
     <row r="35">
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1377.073915560003</v>
+        <v>1623.952971285047</v>
       </c>
     </row>
     <row r="36">
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>675.1584670554672</v>
+        <v>806.5705040515527</v>
       </c>
     </row>
     <row r="37">
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1379.965610342676</v>
+        <v>1627.303040874943</v>
       </c>
     </row>
     <row r="38">
@@ -1303,7 +1303,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>265.2614773484588</v>
+        <v>266.5252418760317</v>
       </c>
     </row>
     <row r="39">
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>584.3696441678319</v>
+        <v>584.5521671300556</v>
       </c>
     </row>
     <row r="40">
@@ -1349,7 +1349,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>443.294823867357</v>
+        <v>567.9523511419288</v>
       </c>
     </row>
     <row r="41">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>889.621082007259</v>
+        <v>1126.21608940235</v>
       </c>
     </row>
     <row r="42">
@@ -1395,7 +1395,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>687.667744607286</v>
+        <v>818.1793526530853</v>
       </c>
     </row>
     <row r="43">
@@ -1418,7 +1418,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1338.18995842458</v>
+        <v>1578.619524922482</v>
       </c>
     </row>
     <row r="44">
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>663.3964417145044</v>
+        <v>793.884761340546</v>
       </c>
     </row>
     <row r="45">
@@ -1464,7 +1464,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1339.973433662505</v>
+        <v>1580.368252568983</v>
       </c>
     </row>
     <row r="46">
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>652.9203585451759</v>
+        <v>782.5229898467251</v>
       </c>
     </row>
     <row r="47">
@@ -1510,7 +1510,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1344.356791435791</v>
+        <v>1585.259808063971</v>
       </c>
     </row>
     <row r="48">
@@ -1533,7 +1533,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>663.6773890431424</v>
+        <v>795.7744375164306</v>
       </c>
     </row>
     <row r="49">
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1347.234508207495</v>
+        <v>1588.548971149496</v>
       </c>
     </row>
     <row r="50">
@@ -1579,7 +1579,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>265.3231310953698</v>
+        <v>266.493025461466</v>
       </c>
     </row>
     <row r="51">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>584.248748199721</v>
+        <v>584.5519923239979</v>
       </c>
     </row>
     <row r="52">
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>442.9169078455246</v>
+        <v>568.0104116955761</v>
       </c>
     </row>
     <row r="53">
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>887.8965475243573</v>
+        <v>1123.100869708898</v>
       </c>
     </row>
     <row r="54">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>683.2139197657199</v>
+        <v>813.4568609152533</v>
       </c>
     </row>
     <row r="55">
@@ -1694,7 +1694,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1337.855996291821</v>
+        <v>1576.730847417498</v>
       </c>
     </row>
     <row r="56">
@@ -1717,7 +1717,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>663.4603903749471</v>
+        <v>793.5419290246449</v>
       </c>
     </row>
     <row r="57">
@@ -1740,7 +1740,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1337.932391218854</v>
+        <v>1576.557761611098</v>
       </c>
     </row>
     <row r="58">
@@ -1763,7 +1763,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>652.8217478021191</v>
+        <v>782.0719234318454</v>
       </c>
     </row>
     <row r="59">
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1342.341495604137</v>
+        <v>1581.448554684217</v>
       </c>
     </row>
     <row r="60">
@@ -1809,7 +1809,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>663.5953293401176</v>
+        <v>795.3342777448964</v>
       </c>
     </row>
     <row r="61">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1345.156920800606</v>
+        <v>1584.689253626118</v>
       </c>
     </row>
     <row r="62">
@@ -1855,7 +1855,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>264.6892118767356</v>
+        <v>266.3889820864334</v>
       </c>
     </row>
     <row r="63">
@@ -1878,7 +1878,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>626.8018471133502</v>
+        <v>628.9730881149173</v>
       </c>
     </row>
     <row r="64">
@@ -1901,7 +1901,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>438.2887806013492</v>
+        <v>566.5281526569044</v>
       </c>
     </row>
     <row r="65">
@@ -1924,7 +1924,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>931.9609744205922</v>
+        <v>1174.370660182104</v>
       </c>
     </row>
     <row r="66">
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>680.6141751989578</v>
+        <v>818.012350348838</v>
       </c>
     </row>
     <row r="67">
@@ -1970,7 +1970,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1380.611086504231</v>
+        <v>1625.747813181706</v>
       </c>
     </row>
     <row r="68">
@@ -1993,7 +1993,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>660.4575390539874</v>
+        <v>797.7061678009501</v>
       </c>
     </row>
     <row r="69">
@@ -2016,7 +2016,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1380.958414874747</v>
+        <v>1626.225626574783</v>
       </c>
     </row>
     <row r="70">
@@ -2039,7 +2039,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>654.8699231843699</v>
+        <v>791.5612899806403</v>
       </c>
     </row>
     <row r="71">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>1383.218596492738</v>
+        <v>1628.868855593638</v>
       </c>
     </row>
     <row r="72">
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>665.1709023473495</v>
+        <v>803.2583838525513</v>
       </c>
     </row>
     <row r="73">
@@ -2108,7 +2108,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1385.38871844413</v>
+        <v>1631.486490374412</v>
       </c>
     </row>
     <row r="74">
@@ -2131,7 +2131,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>260.0919457411848</v>
+        <v>261.6127993072445</v>
       </c>
     </row>
     <row r="75">
@@ -2154,7 +2154,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>590.9369614093659</v>
+        <v>593.5086524088136</v>
       </c>
     </row>
     <row r="76">
@@ -2177,7 +2177,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>431.52686827512</v>
+        <v>555.7952398488061</v>
       </c>
     </row>
     <row r="77">
@@ -2200,7 +2200,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>857.592360499398</v>
+        <v>1086.431546844878</v>
       </c>
     </row>
     <row r="78">
@@ -2223,7 +2223,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>667.8575176163673</v>
+        <v>798.0944966132935</v>
       </c>
     </row>
     <row r="79">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1293.3052234283</v>
+        <v>1526.526761915246</v>
       </c>
     </row>
     <row r="80">
@@ -2269,7 +2269,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>645.3331671719031</v>
+        <v>775.5418363286782</v>
       </c>
     </row>
     <row r="81">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1294.954186429632</v>
+        <v>1528.340403068784</v>
       </c>
     </row>
     <row r="82">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>638.3176739685891</v>
+        <v>767.3292755626093</v>
       </c>
     </row>
     <row r="83">
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>1298.763290609676</v>
+        <v>1532.568456561992</v>
       </c>
     </row>
     <row r="84">
@@ -2361,7 +2361,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>650.4658324909585</v>
+        <v>782.444235317495</v>
       </c>
     </row>
     <row r="85">
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1301.720168462691</v>
+        <v>1536.089226195122</v>
       </c>
     </row>
     <row r="86">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>271.1249146137562</v>
+        <v>272.4147849066766</v>
       </c>
     </row>
     <row r="87">
@@ -2430,7 +2430,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>642.529788161847</v>
+        <v>644.977890076085</v>
       </c>
     </row>
     <row r="88">
@@ -2453,7 +2453,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>448.9248741332941</v>
+        <v>574.0673792294887</v>
       </c>
     </row>
     <row r="89">
@@ -2476,7 +2476,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>983.1901140876024</v>
+        <v>1264.585175950042</v>
       </c>
     </row>
     <row r="90">
@@ -2499,7 +2499,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>708.5350880725454</v>
+        <v>841.2972881187195</v>
       </c>
     </row>
     <row r="91">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1445.219092029554</v>
+        <v>1728.556128643161</v>
       </c>
     </row>
     <row r="92">
@@ -2545,7 +2545,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>895.450078921312</v>
+        <v>1034.035194554008</v>
       </c>
     </row>
     <row r="93">
@@ -2568,7 +2568,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1474.942896107044</v>
+        <v>1761.162182895052</v>
       </c>
     </row>
     <row r="94">
@@ -2591,7 +2591,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>680.4404600005095</v>
+        <v>813.1085178566777</v>
       </c>
     </row>
     <row r="95">
@@ -2614,7 +2614,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1450.123438878323</v>
+        <v>1733.603986354047</v>
       </c>
     </row>
     <row r="96">
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>693.4288725708418</v>
+        <v>828.9730477921944</v>
       </c>
     </row>
     <row r="97">
@@ -2660,7 +2660,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1455.173738398411</v>
+        <v>1739.110052210357</v>
       </c>
     </row>
     <row r="98">
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>265.2628670061251</v>
+        <v>266.6157337158559</v>
       </c>
     </row>
     <row r="99">
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>584.3621304113566</v>
+        <v>584.5649008608409</v>
       </c>
     </row>
     <row r="100">
@@ -2729,7 +2729,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>443.2186487574753</v>
+        <v>567.1029886302007</v>
       </c>
     </row>
     <row r="101">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>889.1072463259433</v>
+        <v>1124.29567516794</v>
       </c>
     </row>
     <row r="102">
@@ -2775,7 +2775,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>678.6809680238878</v>
+        <v>808.3267200468703</v>
       </c>
     </row>
     <row r="103">
@@ -2798,7 +2798,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1336.573826909842</v>
+        <v>1574.902498208719</v>
       </c>
     </row>
     <row r="104">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>655.6940877266453</v>
+        <v>785.4098339593266</v>
       </c>
     </row>
     <row r="105">
@@ -2844,7 +2844,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>1338.357081154584</v>
+        <v>1576.594940625634</v>
       </c>
     </row>
     <row r="106">
@@ -2867,7 +2867,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>763.1251161759358</v>
+        <v>910.1570174712722</v>
       </c>
     </row>
     <row r="107">
@@ -2890,7 +2890,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>1346.83214060789</v>
+        <v>1586.070034305073</v>
       </c>
     </row>
     <row r="108">
@@ -2913,7 +2913,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>777.7396619635193</v>
+        <v>927.6537306076442</v>
       </c>
     </row>
     <row r="109">
@@ -2936,7 +2936,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1349.450042860987</v>
+        <v>1588.836127551935</v>
       </c>
     </row>
     <row r="110">
@@ -2959,7 +2959,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>265.6389797604615</v>
+        <v>266.9437071860634</v>
       </c>
     </row>
     <row r="111">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>585.3555575098277</v>
+        <v>584.5756630940518</v>
       </c>
     </row>
     <row r="112">
@@ -3005,7 +3005,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>439.8402944422193</v>
+        <v>564.6747183214746</v>
       </c>
     </row>
     <row r="113">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>985.8627489700202</v>
+        <v>1247.991080168496</v>
       </c>
     </row>
     <row r="114">
@@ -3051,7 +3051,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>687.4296658869803</v>
+        <v>818.2605260362026</v>
       </c>
     </row>
     <row r="115">
@@ -3074,7 +3074,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>1329.146750872661</v>
+        <v>1566.603472635826</v>
       </c>
     </row>
     <row r="116">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>662.9846996603424</v>
+        <v>793.5246273194169</v>
       </c>
     </row>
     <row r="117">
@@ -3120,7 +3120,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1330.834610585884</v>
+        <v>1568.299161055903</v>
       </c>
     </row>
     <row r="118">
@@ -3143,7 +3143,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>652.5875834567915</v>
+        <v>782.197186499091</v>
       </c>
     </row>
     <row r="119">
@@ -3166,7 +3166,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1335.252119864577</v>
+        <v>1573.03771034495</v>
       </c>
     </row>
     <row r="120">
@@ -3189,7 +3189,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>663.4529109005596</v>
+        <v>795.5405910393049</v>
       </c>
     </row>
     <row r="121">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1337.994033134523</v>
+        <v>1576.190679413407</v>
       </c>
     </row>
     <row r="122">
@@ -3235,7 +3235,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>265.2627861296899</v>
+        <v>266.527672368178</v>
       </c>
     </row>
     <row r="123">
@@ -3258,7 +3258,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>584.3499784063281</v>
+        <v>584.5536604936383</v>
       </c>
     </row>
     <row r="124">
@@ -3281,7 +3281,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>443.1805766648486</v>
+        <v>567.7037498232244</v>
       </c>
     </row>
     <row r="125">
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>888.6732688441837</v>
+        <v>1124.140572529349</v>
       </c>
     </row>
     <row r="126">
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>687.4538493070779</v>
+        <v>817.991243800941</v>
       </c>
     </row>
     <row r="127">
@@ -3350,7 +3350,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1334.557329999631</v>
+        <v>1572.195023406673</v>
       </c>
     </row>
     <row r="128">
@@ -3373,7 +3373,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>662.9484252931414</v>
+        <v>793.3354613206849</v>
       </c>
     </row>
     <row r="129">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1336.004947899234</v>
+        <v>1573.525290774891</v>
       </c>
     </row>
     <row r="130">
@@ -3419,7 +3419,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>653.9580158128723</v>
+        <v>783.5242883693209</v>
       </c>
     </row>
     <row r="131">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1422.314357535483</v>
+        <v>1674.850640197047</v>
       </c>
     </row>
     <row r="132">
@@ -3465,7 +3465,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>664.6853297882479</v>
+        <v>796.7313223230165</v>
       </c>
     </row>
     <row r="133">
@@ -3488,7 +3488,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1424.894936202565</v>
+        <v>1678.01437542612</v>
       </c>
     </row>
     <row r="134">
@@ -3511,7 +3511,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>231.8380993529008</v>
+        <v>233.0783992990184</v>
       </c>
     </row>
     <row r="135">
@@ -3534,7 +3534,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>528.0123047825008</v>
+        <v>528.1492175315158</v>
       </c>
     </row>
     <row r="136">
@@ -3557,7 +3557,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>389.4677669864965</v>
+        <v>500.8029687926957</v>
       </c>
     </row>
     <row r="137">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>811.9441792517806</v>
+        <v>1024.947749914325</v>
       </c>
     </row>
     <row r="138">
@@ -3603,7 +3603,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>607.8835900728184</v>
+        <v>724.0398665406586</v>
       </c>
     </row>
     <row r="139">
@@ -3626,7 +3626,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>1218.209511768754</v>
+        <v>1434.683157889213</v>
       </c>
     </row>
     <row r="140">
@@ -3649,7 +3649,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>583.2865301343897</v>
+        <v>699.0945040426371</v>
       </c>
     </row>
     <row r="141">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>1219.991949090261</v>
+        <v>1436.563665211929</v>
       </c>
     </row>
     <row r="142">
@@ -3695,7 +3695,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>573.1228087029075</v>
+        <v>688.3316671916409</v>
       </c>
     </row>
     <row r="143">
@@ -3718,7 +3718,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1223.651512691308</v>
+        <v>1440.372515638714</v>
       </c>
     </row>
     <row r="144">
@@ -3741,7 +3741,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>583.0619876942825</v>
+        <v>700.2573101176423</v>
       </c>
     </row>
     <row r="145">
@@ -3764,7 +3764,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>1226.315314599759</v>
+        <v>1443.573517806859</v>
       </c>
     </row>
     <row r="146">
@@ -3787,7 +3787,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>234.3463184689813</v>
+        <v>233.4162861885447</v>
       </c>
     </row>
     <row r="147">
@@ -3810,7 +3810,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>728.1013601701844</v>
+        <v>727.2271217811194</v>
       </c>
     </row>
     <row r="148">
@@ -3833,7 +3833,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>470.670535171969</v>
+        <v>577.6098722051498</v>
       </c>
     </row>
     <row r="149">
@@ -3856,7 +3856,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>1096.444668105743</v>
+        <v>1378.217136591113</v>
       </c>
     </row>
     <row r="150">
@@ -3879,7 +3879,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>923.7756688805829</v>
+        <v>1064.661654732782</v>
       </c>
     </row>
     <row r="151">
@@ -3902,7 +3902,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>1560.880140271423</v>
+        <v>1842.859703306195</v>
       </c>
     </row>
     <row r="152">
@@ -3925,7 +3925,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>920.8132246188335</v>
+        <v>1061.497562789269</v>
       </c>
     </row>
     <row r="153">
@@ -3948,7 +3948,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>1562.965355400218</v>
+        <v>1845.347650167725</v>
       </c>
     </row>
     <row r="154">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>910.3103622801012</v>
+        <v>1050.469062963524</v>
       </c>
     </row>
     <row r="155">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1564.463232142241</v>
+        <v>1847.125732794631</v>
       </c>
     </row>
     <row r="156">
@@ -4017,7 +4017,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>911.3389794471068</v>
+        <v>1051.545880453863</v>
       </c>
     </row>
     <row r="157">
@@ -4040,7 +4040,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>1566.578414355979</v>
+        <v>1849.734951849701</v>
       </c>
     </row>
     <row r="158">
@@ -4063,7 +4063,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>433.6212604486387</v>
+        <v>438.4136642368634</v>
       </c>
     </row>
     <row r="159">
@@ -4086,7 +4086,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>732.6173365738842</v>
+        <v>731.9012905667892</v>
       </c>
     </row>
     <row r="160">
@@ -4109,7 +4109,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>650.8950716799685</v>
+        <v>787.141001920739</v>
       </c>
     </row>
     <row r="161">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>1104.722946739062</v>
+        <v>1387.600814453697</v>
       </c>
     </row>
     <row r="162">
@@ -4155,7 +4155,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>715.531662684847</v>
+        <v>846.435409249136</v>
       </c>
     </row>
     <row r="163">
@@ -4178,7 +4178,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1495.004650245393</v>
+        <v>1792.629209515803</v>
       </c>
     </row>
     <row r="164">
@@ -4201,7 +4201,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>694.5261189078446</v>
+        <v>825.8474602042784</v>
       </c>
     </row>
     <row r="165">
@@ -4224,7 +4224,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1496.177331952397</v>
+        <v>1794.439249164185</v>
       </c>
     </row>
     <row r="166">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>671.9587362324691</v>
+        <v>802.3549575850599</v>
       </c>
     </row>
     <row r="167">
@@ -4270,7 +4270,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>1501.658531798796</v>
+        <v>1800.013883097765</v>
       </c>
     </row>
     <row r="168">
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>682.3087986193045</v>
+        <v>814.8916692289715</v>
       </c>
     </row>
     <row r="169">
@@ -4316,7 +4316,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1505.251324045102</v>
+        <v>1803.811903345444</v>
       </c>
     </row>
     <row r="170">
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>254.3245625034129</v>
+        <v>255.9702156987713</v>
       </c>
     </row>
     <row r="171">
@@ -4362,7 +4362,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>587.5706264175602</v>
+        <v>590.3515712426745</v>
       </c>
     </row>
     <row r="172">
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>425.5566997322931</v>
+        <v>549.369448299513</v>
       </c>
     </row>
     <row r="173">
@@ -4408,7 +4408,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>851.5562087885118</v>
+        <v>1079.803448593729</v>
       </c>
     </row>
     <row r="174">
@@ -4431,7 +4431,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>660.4404430354572</v>
+        <v>790.9462765796133</v>
       </c>
     </row>
     <row r="175">
@@ -4454,7 +4454,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>1284.271170217348</v>
+        <v>1517.099202576545</v>
       </c>
     </row>
     <row r="176">
@@ -4477,7 +4477,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>641.229302570311</v>
+        <v>771.3617748906125</v>
       </c>
     </row>
     <row r="177">
@@ -4500,7 +4500,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1285.309184128007</v>
+        <v>1517.870728559661</v>
       </c>
     </row>
     <row r="178">
@@ -4523,7 +4523,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>634.6803971083575</v>
+        <v>764.0200175228416</v>
       </c>
     </row>
     <row r="179">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>1288.527272261475</v>
+        <v>1521.748491809716</v>
       </c>
     </row>
     <row r="180">
@@ -4569,7 +4569,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>646.7133559613735</v>
+        <v>778.3968694238484</v>
       </c>
     </row>
     <row r="181">
@@ -4592,7 +4592,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>1290.961173480415</v>
+        <v>1524.687082348897</v>
       </c>
     </row>
     <row r="182">
@@ -4615,7 +4615,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>260.7123917170079</v>
+        <v>261.2014969798136</v>
       </c>
     </row>
     <row r="183">
@@ -4638,7 +4638,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>586.286983112571</v>
+        <v>585.4909527198192</v>
       </c>
     </row>
     <row r="184">
@@ -4661,7 +4661,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>437.3434717570196</v>
+        <v>560.7005766872621</v>
       </c>
     </row>
     <row r="185">
@@ -4684,7 +4684,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>878.0187838474299</v>
+        <v>1110.949767591175</v>
       </c>
     </row>
     <row r="186">
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>677.0259259158279</v>
+        <v>806.0270739693462</v>
       </c>
     </row>
     <row r="187">
@@ -4730,7 +4730,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>1326.827414549314</v>
+        <v>1562.522130013884</v>
       </c>
     </row>
     <row r="188">
@@ -4753,7 +4753,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>654.0089629784129</v>
+        <v>783.0044954324228</v>
       </c>
     </row>
     <row r="189">
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>1328.614278328235</v>
+        <v>1564.103698599267</v>
       </c>
     </row>
     <row r="190">
@@ -4799,7 +4799,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>643.9652105305579</v>
+        <v>772.3046625696611</v>
       </c>
     </row>
     <row r="191">
@@ -4822,7 +4822,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>1333.353954369966</v>
+        <v>1569.275547246881</v>
       </c>
     </row>
     <row r="192">
@@ -4845,7 +4845,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>652.7578531328559</v>
+        <v>782.0710500932452</v>
       </c>
     </row>
     <row r="193">
@@ -4868,7 +4868,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>1335.961196946193</v>
+        <v>1572.466897223508</v>
       </c>
     </row>
   </sheetData>

--- a/visualizations/elec_consumption_per_scenario_year.xlsx
+++ b/visualizations/elec_consumption_per_scenario_year.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>265.5456513865531</v>
+        <v>267.4894945724078</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>589.5320418222899</v>
+        <v>588.7388926830475</v>
       </c>
     </row>
     <row r="4">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>443.2966924833537</v>
+        <v>568.3031969045588</v>
       </c>
     </row>
     <row r="5">
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>899.4738995016795</v>
+        <v>1138.084705596556</v>
       </c>
     </row>
     <row r="6">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>691.5432420200767</v>
+        <v>822.6583685186977</v>
       </c>
     </row>
     <row r="7">
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1352.025442359218</v>
+        <v>1591.959256233602</v>
       </c>
     </row>
     <row r="8">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>667.523282187033</v>
+        <v>798.4185687038254</v>
       </c>
     </row>
     <row r="9">
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1353.683339588887</v>
+        <v>1593.279222385182</v>
       </c>
     </row>
     <row r="10">
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>655.1823259304065</v>
+        <v>784.7213323311188</v>
       </c>
     </row>
     <row r="11">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1358.751226194119</v>
+        <v>1599.003192125524</v>
       </c>
     </row>
     <row r="12">
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>666.2626593098236</v>
+        <v>798.3620021341485</v>
       </c>
     </row>
     <row r="13">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1361.274557605164</v>
+        <v>1601.601417551153</v>
       </c>
     </row>
     <row r="14">
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>259.3455254636514</v>
+        <v>261.1119832521837</v>
       </c>
     </row>
     <row r="15">
@@ -774,7 +774,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>588.4337792438056</v>
+        <v>587.6559348713365</v>
       </c>
     </row>
     <row r="16">
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>437.4912698357887</v>
+        <v>562.3685987719035</v>
       </c>
     </row>
     <row r="17">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>901.2630347917381</v>
+        <v>1140.322901981712</v>
       </c>
     </row>
     <row r="18">
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>683.8709385716926</v>
+        <v>815.2919130311675</v>
       </c>
     </row>
     <row r="19">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1355.703472469077</v>
+        <v>1595.876529662637</v>
       </c>
     </row>
     <row r="20">
@@ -889,7 +889,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>661.6844349494938</v>
+        <v>792.6675021731323</v>
       </c>
     </row>
     <row r="21">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1357.724843313913</v>
+        <v>1597.639516383547</v>
       </c>
     </row>
     <row r="22">
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>650.094773449385</v>
+        <v>779.5726222778434</v>
       </c>
     </row>
     <row r="23">
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1361.255939922193</v>
+        <v>1601.893258683152</v>
       </c>
     </row>
     <row r="24">
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>660.8341875242111</v>
+        <v>792.9109258261734</v>
       </c>
     </row>
     <row r="25">
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1363.754608182676</v>
+        <v>1604.282444559665</v>
       </c>
     </row>
     <row r="26">
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>271.3770852062477</v>
+        <v>273.1858906824314</v>
       </c>
     </row>
     <row r="27">
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>591.0093715659115</v>
+        <v>590.1667751157535</v>
       </c>
     </row>
     <row r="28">
@@ -1073,7 +1073,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>449.9919840453405</v>
+        <v>575.7824101366771</v>
       </c>
     </row>
     <row r="29">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>897.5656524486238</v>
+        <v>1135.865662445898</v>
       </c>
     </row>
     <row r="30">
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>700.056704912234</v>
+        <v>830.9612424783135</v>
       </c>
     </row>
     <row r="31">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1349.898180609018</v>
+        <v>1589.307429294764</v>
       </c>
     </row>
     <row r="32">
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>674.3603725358342</v>
+        <v>805.4111085580353</v>
       </c>
     </row>
     <row r="33">
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1351.246656995889</v>
+        <v>1590.63109625125</v>
       </c>
     </row>
     <row r="34">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>662.0351287483487</v>
+        <v>791.4512641490289</v>
       </c>
     </row>
     <row r="35">
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1355.328814907259</v>
+        <v>1595.114478605587</v>
       </c>
     </row>
     <row r="36">
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>673.293346349934</v>
+        <v>805.4662892070177</v>
       </c>
     </row>
     <row r="37">
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1358.754901981968</v>
+        <v>1599.369812517097</v>
       </c>
     </row>
     <row r="38">
@@ -1303,7 +1303,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>265.5454026320717</v>
+        <v>267.4894530784085</v>
       </c>
     </row>
     <row r="39">
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>589.5320418222899</v>
+        <v>588.7388926830475</v>
       </c>
     </row>
     <row r="40">
@@ -1349,7 +1349,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>443.2966565158862</v>
+        <v>568.300472806019</v>
       </c>
     </row>
     <row r="41">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>899.4738995016795</v>
+        <v>1138.084622053519</v>
       </c>
     </row>
     <row r="42">
@@ -1395,7 +1395,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>691.5327172167039</v>
+        <v>822.6431022442982</v>
       </c>
     </row>
     <row r="43">
@@ -1418,7 +1418,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1352.026199446103</v>
+        <v>1591.960612694952</v>
       </c>
     </row>
     <row r="44">
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>667.523282187033</v>
+        <v>798.4185687038254</v>
       </c>
     </row>
     <row r="45">
@@ -1464,7 +1464,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1353.683339588887</v>
+        <v>1593.279222385182</v>
       </c>
     </row>
     <row r="46">
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>655.176251805821</v>
+        <v>784.720364707249</v>
       </c>
     </row>
     <row r="47">
@@ -1510,7 +1510,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1358.751226194119</v>
+        <v>1599.003192125524</v>
       </c>
     </row>
     <row r="48">
@@ -1533,7 +1533,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>666.2452326342341</v>
+        <v>798.3580926725425</v>
       </c>
     </row>
     <row r="49">
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1361.274557605164</v>
+        <v>1601.601417551153</v>
       </c>
     </row>
     <row r="50">
@@ -1579,7 +1579,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>265.5456513865531</v>
+        <v>267.4894945724079</v>
       </c>
     </row>
     <row r="51">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>589.5320418222899</v>
+        <v>588.7388926830475</v>
       </c>
     </row>
     <row r="52">
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>443.3018486474044</v>
+        <v>568.6154079297662</v>
       </c>
     </row>
     <row r="53">
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>899.4738995016795</v>
+        <v>1138.086528131764</v>
       </c>
     </row>
     <row r="54">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>687.1056145761697</v>
+        <v>817.9285910277504</v>
       </c>
     </row>
     <row r="55">
@@ -1694,7 +1694,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1353.870290719695</v>
+        <v>1593.94762347701</v>
       </c>
     </row>
     <row r="56">
@@ -1717,7 +1717,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>667.7901591952459</v>
+        <v>798.6295182042003</v>
       </c>
     </row>
     <row r="57">
@@ -1740,7 +1740,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1353.684859125362</v>
+        <v>1593.279222385182</v>
       </c>
     </row>
     <row r="58">
@@ -1763,7 +1763,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>655.1823259304065</v>
+        <v>784.7213323311188</v>
       </c>
     </row>
     <row r="59">
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1358.751226194119</v>
+        <v>1599.003192125524</v>
       </c>
     </row>
     <row r="60">
@@ -1809,7 +1809,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>666.2626593098236</v>
+        <v>798.3620021341485</v>
       </c>
     </row>
     <row r="61">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1361.274557605164</v>
+        <v>1601.601417551153</v>
       </c>
     </row>
     <row r="62">
@@ -1855,7 +1855,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>268.2559759248603</v>
+        <v>270.0322193587112</v>
       </c>
     </row>
     <row r="63">
@@ -1878,7 +1878,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>635.4142541018113</v>
+        <v>634.5901899343423</v>
       </c>
     </row>
     <row r="64">
@@ -1901,7 +1901,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>445.061371044493</v>
+        <v>576.199706338037</v>
       </c>
     </row>
     <row r="65">
@@ -1924,7 +1924,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>949.1426002026607</v>
+        <v>1199.312891217262</v>
       </c>
     </row>
     <row r="66">
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>704.2261040227453</v>
+        <v>844.0911720402254</v>
       </c>
     </row>
     <row r="67">
@@ -1970,7 +1970,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1406.764157038074</v>
+        <v>1656.776965304502</v>
       </c>
     </row>
     <row r="68">
@@ -1993,7 +1993,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>683.9780459268378</v>
+        <v>824.0527538288998</v>
       </c>
     </row>
     <row r="69">
@@ -2016,7 +2016,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1407.781216503659</v>
+        <v>1658.050065622494</v>
       </c>
     </row>
     <row r="70">
@@ -2039,7 +2039,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>676.368699832905</v>
+        <v>815.1986100568367</v>
       </c>
     </row>
     <row r="71">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>1410.175849299211</v>
+        <v>1661.001973329178</v>
       </c>
     </row>
     <row r="72">
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>688.3220746897769</v>
+        <v>829.4832389844645</v>
       </c>
     </row>
     <row r="73">
@@ -2108,7 +2108,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1413.64644787318</v>
+        <v>1664.741232446001</v>
       </c>
     </row>
     <row r="74">
@@ -2131,7 +2131,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>260.2084528345717</v>
+        <v>262.0060352927949</v>
       </c>
     </row>
     <row r="75">
@@ -2154,7 +2154,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>598.3291916541416</v>
+        <v>597.535491080905</v>
       </c>
     </row>
     <row r="76">
@@ -2177,7 +2177,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>436.817050478825</v>
+        <v>562.4868218841323</v>
       </c>
     </row>
     <row r="77">
@@ -2200,7 +2200,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>899.2091729549448</v>
+        <v>1137.492804824448</v>
       </c>
     </row>
     <row r="78">
@@ -2223,7 +2223,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>680.6556109909372</v>
+        <v>811.7715399478437</v>
       </c>
     </row>
     <row r="79">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1353.727217422698</v>
+        <v>1593.459064733011</v>
       </c>
     </row>
     <row r="80">
@@ -2269,7 +2269,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>657.5929653674532</v>
+        <v>788.4017304617131</v>
       </c>
     </row>
     <row r="81">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1356.384553840777</v>
+        <v>1595.99667637964</v>
       </c>
     </row>
     <row r="82">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>647.5947692437305</v>
+        <v>777.2232866377707</v>
       </c>
     </row>
     <row r="83">
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>1359.808699368886</v>
+        <v>1600.272104975715</v>
       </c>
     </row>
     <row r="84">
@@ -2361,7 +2361,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>661.4430818501958</v>
+        <v>793.6318140509482</v>
       </c>
     </row>
     <row r="85">
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1363.770640581087</v>
+        <v>1604.704466708529</v>
       </c>
     </row>
     <row r="86">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>265.5456513865531</v>
+        <v>267.4894945724078</v>
       </c>
     </row>
     <row r="87">
@@ -2430,7 +2430,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>589.5320418222899</v>
+        <v>588.7388926830475</v>
       </c>
     </row>
     <row r="88">
@@ -2453,7 +2453,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>443.2966924833536</v>
+        <v>568.3031969045588</v>
       </c>
     </row>
     <row r="89">
@@ -2476,7 +2476,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>899.4738995016795</v>
+        <v>1138.084705596556</v>
       </c>
     </row>
     <row r="90">
@@ -2499,7 +2499,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>684.0549763817854</v>
+        <v>813.792887951285</v>
       </c>
     </row>
     <row r="91">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1351.925070599953</v>
+        <v>1591.838691420414</v>
       </c>
     </row>
     <row r="92">
@@ -2545,7 +2545,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>875.3554429254848</v>
+        <v>1011.434419649873</v>
       </c>
     </row>
     <row r="93">
@@ -2568,7 +2568,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1380.951423377625</v>
+        <v>1623.330549907092</v>
       </c>
     </row>
     <row r="94">
@@ -2591,7 +2591,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>653.3492068632848</v>
+        <v>782.5949510898355</v>
       </c>
     </row>
     <row r="95">
@@ -2614,7 +2614,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1357.702164795116</v>
+        <v>1597.823952138596</v>
       </c>
     </row>
     <row r="96">
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>666.2626593098236</v>
+        <v>798.3620021341485</v>
       </c>
     </row>
     <row r="97">
@@ -2660,7 +2660,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1361.274557605164</v>
+        <v>1601.601417551153</v>
       </c>
     </row>
     <row r="98">
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>265.5456513865531</v>
+        <v>267.4894945724079</v>
       </c>
     </row>
     <row r="99">
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>589.5320418222899</v>
+        <v>588.7388926830475</v>
       </c>
     </row>
     <row r="100">
@@ -2729,7 +2729,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>443.2966924833536</v>
+        <v>568.3031969045588</v>
       </c>
     </row>
     <row r="101">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>899.4738995016795</v>
+        <v>1138.084705596556</v>
       </c>
     </row>
     <row r="102">
@@ -2775,7 +2775,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>691.5432420200767</v>
+        <v>822.6583685186972</v>
       </c>
     </row>
     <row r="103">
@@ -2798,7 +2798,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1352.025442359218</v>
+        <v>1591.959256233602</v>
       </c>
     </row>
     <row r="104">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>669.0968493672809</v>
+        <v>800.2211548822557</v>
       </c>
     </row>
     <row r="105">
@@ -2844,7 +2844,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>1353.693246858925</v>
+        <v>1593.28089947837</v>
       </c>
     </row>
     <row r="106">
@@ -2867,7 +2867,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>781.2464795465402</v>
+        <v>931.1519134321762</v>
       </c>
     </row>
     <row r="107">
@@ -2890,7 +2890,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>1362.117090139415</v>
+        <v>1602.401668368904</v>
       </c>
     </row>
     <row r="108">
@@ -2913,7 +2913,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>794.2000031649388</v>
+        <v>945.7467420676489</v>
       </c>
     </row>
     <row r="109">
@@ -2936,7 +2936,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1364.380930188842</v>
+        <v>1605.236880619684</v>
       </c>
     </row>
     <row r="110">
@@ -2959,7 +2959,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>265.7450617909329</v>
+        <v>267.7944893141093</v>
       </c>
     </row>
     <row r="111">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>589.5320418222899</v>
+        <v>588.741166723839</v>
       </c>
     </row>
     <row r="112">
@@ -3005,7 +3005,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>442.487657590444</v>
+        <v>567.0941922708025</v>
       </c>
     </row>
     <row r="113">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1010.825455982119</v>
+        <v>1279.038690261723</v>
       </c>
     </row>
     <row r="114">
@@ -3051,7 +3051,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>691.7084020818437</v>
+        <v>823.1046613603067</v>
       </c>
     </row>
     <row r="115">
@@ -3074,7 +3074,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>1352.026765404039</v>
+        <v>1591.993528473002</v>
       </c>
     </row>
     <row r="116">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>667.523282187033</v>
+        <v>798.4185687038254</v>
       </c>
     </row>
     <row r="117">
@@ -3120,7 +3120,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1353.683339588887</v>
+        <v>1593.279222385182</v>
       </c>
     </row>
     <row r="118">
@@ -3143,7 +3143,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>655.1823259304065</v>
+        <v>784.7213323311188</v>
       </c>
     </row>
     <row r="119">
@@ -3166,7 +3166,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1358.751226194119</v>
+        <v>1599.003192125524</v>
       </c>
     </row>
     <row r="120">
@@ -3189,7 +3189,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>666.2626593098236</v>
+        <v>798.3620021341485</v>
       </c>
     </row>
     <row r="121">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1361.274557605164</v>
+        <v>1601.601417551153</v>
       </c>
     </row>
     <row r="122">
@@ -3235,7 +3235,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>265.5456513865531</v>
+        <v>267.4894945724078</v>
       </c>
     </row>
     <row r="123">
@@ -3258,7 +3258,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>589.5320418222899</v>
+        <v>588.7388926830475</v>
       </c>
     </row>
     <row r="124">
@@ -3281,7 +3281,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>443.2966924833536</v>
+        <v>568.3031969045588</v>
       </c>
     </row>
     <row r="125">
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>899.4738995016795</v>
+        <v>1138.084705596556</v>
       </c>
     </row>
     <row r="126">
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>691.5432420200767</v>
+        <v>822.6583685186972</v>
       </c>
     </row>
     <row r="127">
@@ -3350,7 +3350,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1352.025442359218</v>
+        <v>1591.959256233602</v>
       </c>
     </row>
     <row r="128">
@@ -3373,7 +3373,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>667.523282187033</v>
+        <v>798.4185687038254</v>
       </c>
     </row>
     <row r="129">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1353.683339588887</v>
+        <v>1593.279222385182</v>
       </c>
     </row>
     <row r="130">
@@ -3419,7 +3419,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>656.3811889335448</v>
+        <v>786.016682267711</v>
       </c>
     </row>
     <row r="131">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1440.373841920942</v>
+        <v>1695.087774570009</v>
       </c>
     </row>
     <row r="132">
@@ -3465,7 +3465,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>667.5258294213246</v>
+        <v>799.7178772823753</v>
       </c>
     </row>
     <row r="133">
@@ -3488,7 +3488,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1442.99758913068</v>
+        <v>1698.232077993366</v>
       </c>
     </row>
     <row r="134">
@@ -3511,7 +3511,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>226.0996014169014</v>
+        <v>226.6146354692731</v>
       </c>
     </row>
     <row r="135">
@@ -3534,7 +3534,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>522.6295847563608</v>
+        <v>521.9048014148008</v>
       </c>
     </row>
     <row r="136">
@@ -3557,7 +3557,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>380.9846208137333</v>
+        <v>490.9225692378666</v>
       </c>
     </row>
     <row r="137">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>793.2848109505443</v>
+        <v>1003.647345641206</v>
       </c>
     </row>
     <row r="138">
@@ -3603,7 +3603,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>589.1048298259693</v>
+        <v>704.2813261979675</v>
       </c>
     </row>
     <row r="139">
@@ -3626,7 +3626,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>1189.873532578977</v>
+        <v>1400.936280821169</v>
       </c>
     </row>
     <row r="140">
@@ -3649,7 +3649,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>563.9442141410627</v>
+        <v>678.8047778715645</v>
       </c>
     </row>
     <row r="141">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>1191.819400026682</v>
+        <v>1403.070416104234</v>
       </c>
     </row>
     <row r="142">
@@ -3695,7 +3695,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>557.4530238996706</v>
+        <v>672.3052914826385</v>
       </c>
     </row>
     <row r="143">
@@ -3718,7 +3718,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1197.531235196136</v>
+        <v>1409.28284175697</v>
       </c>
     </row>
     <row r="144">
@@ -3741,7 +3741,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>557.9567651170499</v>
+        <v>673.184965641498</v>
       </c>
     </row>
     <row r="145">
@@ -3764,7 +3764,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>1200.048518286611</v>
+        <v>1412.007099162633</v>
       </c>
     </row>
     <row r="146">
@@ -3787,7 +3787,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>384.2640296649747</v>
+        <v>385.602444335318</v>
       </c>
     </row>
     <row r="147">
@@ -3810,7 +3810,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>590.1727841866493</v>
+        <v>589.3420431170506</v>
       </c>
     </row>
     <row r="148">
@@ -3833,7 +3833,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>594.3650692887862</v>
+        <v>722.7843932129678</v>
       </c>
     </row>
     <row r="149">
@@ -3856,7 +3856,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>921.1035259929135</v>
+        <v>1162.889024920684</v>
       </c>
     </row>
     <row r="150">
@@ -3879,7 +3879,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>863.9077204821926</v>
+        <v>997.3407318135136</v>
       </c>
     </row>
     <row r="151">
@@ -3902,7 +3902,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>1375.624707325386</v>
+        <v>1617.19048983242</v>
       </c>
     </row>
     <row r="152">
@@ -3925,7 +3925,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>859.7041400798131</v>
+        <v>992.6467455249217</v>
       </c>
     </row>
     <row r="153">
@@ -3948,7 +3948,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>1378.030452723956</v>
+        <v>1620.042166575259</v>
       </c>
     </row>
     <row r="154">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>858.8188929204312</v>
+        <v>992.8616359138301</v>
       </c>
     </row>
     <row r="155">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1383.169666137221</v>
+        <v>1626.294110045317</v>
       </c>
     </row>
     <row r="156">
@@ -4017,7 +4017,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>864.0473368705351</v>
+        <v>999.5232181149173</v>
       </c>
     </row>
     <row r="157">
@@ -4040,7 +4040,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>1385.100086508718</v>
+        <v>1628.530900856951</v>
       </c>
     </row>
     <row r="158">
@@ -4063,7 +4063,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>384.2640296649747</v>
+        <v>385.602444335318</v>
       </c>
     </row>
     <row r="159">
@@ -4086,7 +4086,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>590.1727841866493</v>
+        <v>589.3420431170506</v>
       </c>
     </row>
     <row r="160">
@@ -4109,7 +4109,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>595.1037437702283</v>
+        <v>724.338239315126</v>
       </c>
     </row>
     <row r="161">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>922.8871948587702</v>
+        <v>1165.303569795076</v>
       </c>
     </row>
     <row r="162">
@@ -4155,7 +4155,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>701.3094180246613</v>
+        <v>831.7573869819553</v>
       </c>
     </row>
     <row r="163">
@@ -4178,7 +4178,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1351.514171797266</v>
+        <v>1591.040816960993</v>
       </c>
     </row>
     <row r="164">
@@ -4201,7 +4201,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>679.7029494565317</v>
+        <v>810.7946384384499</v>
       </c>
     </row>
     <row r="165">
@@ -4224,7 +4224,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1352.786358922184</v>
+        <v>1592.598846520262</v>
       </c>
     </row>
     <row r="166">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>654.4030229598301</v>
+        <v>783.7884225682686</v>
       </c>
     </row>
     <row r="167">
@@ -4270,7 +4270,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>1358.740629152055</v>
+        <v>1598.989122198674</v>
       </c>
     </row>
     <row r="168">
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>666.2626593098236</v>
+        <v>798.3620021341485</v>
       </c>
     </row>
     <row r="169">
@@ -4316,7 +4316,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1361.274557605164</v>
+        <v>1601.601417551153</v>
       </c>
     </row>
     <row r="170">
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>254.9540867619101</v>
+        <v>256.7462131366061</v>
       </c>
     </row>
     <row r="171">
@@ -4362,7 +4362,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>597.2980041318515</v>
+        <v>596.5295561950757</v>
       </c>
     </row>
     <row r="172">
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>431.8446770757379</v>
+        <v>557.2949012108271</v>
       </c>
     </row>
     <row r="173">
@@ -4408,7 +4408,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>899.947470049531</v>
+        <v>1138.901235803043</v>
       </c>
     </row>
     <row r="174">
@@ -4431,7 +4431,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>674.1637840144299</v>
+        <v>805.2173725347996</v>
       </c>
     </row>
     <row r="175">
@@ -4454,7 +4454,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>1355.914541678181</v>
+        <v>1595.793776942017</v>
       </c>
     </row>
     <row r="176">
@@ -4477,7 +4477,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>654.0008872226605</v>
+        <v>785.02315340363</v>
       </c>
     </row>
     <row r="177">
@@ -4500,7 +4500,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1357.747798292522</v>
+        <v>1597.487828128421</v>
       </c>
     </row>
     <row r="178">
@@ -4523,7 +4523,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>644.7118384643431</v>
+        <v>774.2978905678409</v>
       </c>
     </row>
     <row r="179">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>1361.375584939359</v>
+        <v>1601.997050816618</v>
       </c>
     </row>
     <row r="180">
@@ -4569,7 +4569,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>658.140401990687</v>
+        <v>790.4901586538208</v>
       </c>
     </row>
     <row r="181">
@@ -4592,7 +4592,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>1364.704413528763</v>
+        <v>1605.631346573842</v>
       </c>
     </row>
     <row r="182">
@@ -4615,7 +4615,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>265.5456513865531</v>
+        <v>267.4894945724078</v>
       </c>
     </row>
     <row r="183">
@@ -4638,7 +4638,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>589.5320418222899</v>
+        <v>588.7388926830475</v>
       </c>
     </row>
     <row r="184">
@@ -4661,7 +4661,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>443.2966924833536</v>
+        <v>568.3031969045588</v>
       </c>
     </row>
     <row r="185">
@@ -4684,7 +4684,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>899.4738995016795</v>
+        <v>1138.084705596556</v>
       </c>
     </row>
     <row r="186">
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>691.5432420200767</v>
+        <v>822.6583685186972</v>
       </c>
     </row>
     <row r="187">
@@ -4730,7 +4730,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>1352.025442359218</v>
+        <v>1591.959256233602</v>
       </c>
     </row>
     <row r="188">
@@ -4753,7 +4753,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>667.523282187033</v>
+        <v>798.4185687038254</v>
       </c>
     </row>
     <row r="189">
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>1353.683339588887</v>
+        <v>1593.279222385182</v>
       </c>
     </row>
     <row r="190">
@@ -4799,7 +4799,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>655.1823259304065</v>
+        <v>784.7213323311188</v>
       </c>
     </row>
     <row r="191">
@@ -4822,7 +4822,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>1358.751226194119</v>
+        <v>1599.003192125524</v>
       </c>
     </row>
     <row r="192">
@@ -4845,7 +4845,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>666.2626593098236</v>
+        <v>798.3620021341485</v>
       </c>
     </row>
     <row r="193">
@@ -4868,7 +4868,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>1361.274557605164</v>
+        <v>1601.601417551153</v>
       </c>
     </row>
   </sheetData>

--- a/visualizations/elec_consumption_per_scenario_year.xlsx
+++ b/visualizations/elec_consumption_per_scenario_year.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1126.324221750462</v>
+        <v>1126.324221750463</v>
       </c>
     </row>
     <row r="6">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>818.1949278344659</v>
+        <v>818.1949278344663</v>
       </c>
     </row>
     <row r="7">
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1578.747577773757</v>
+        <v>1578.747577773758</v>
       </c>
     </row>
     <row r="8">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>793.8889152819168</v>
+        <v>793.8889152819173</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>782.5306459973657</v>
+        <v>782.5306459973659</v>
       </c>
     </row>
     <row r="11">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1585.390919286712</v>
+        <v>1585.390919286713</v>
       </c>
     </row>
     <row r="12">
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>795.7781330605011</v>
+        <v>795.7781330605015</v>
       </c>
     </row>
     <row r="13">
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>259.5591280471727</v>
+        <v>259.5591280471726</v>
       </c>
     </row>
     <row r="15">
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>558.775392198645</v>
+        <v>558.7753921986449</v>
       </c>
     </row>
     <row r="17">
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>807.2062462060974</v>
+        <v>807.206246206097</v>
       </c>
     </row>
     <row r="19">
@@ -889,7 +889,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>784.4265302827013</v>
+        <v>784.4265302827009</v>
       </c>
     </row>
     <row r="21">
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>774.1766537979655</v>
+        <v>774.1766537979651</v>
       </c>
     </row>
     <row r="23">
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1559.083393596061</v>
+        <v>1559.08339359606</v>
       </c>
     </row>
     <row r="24">
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>786.4358660519553</v>
+        <v>786.4358660519543</v>
       </c>
     </row>
     <row r="25">
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>830.115196204093</v>
+        <v>830.1151962040929</v>
       </c>
     </row>
     <row r="31">
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>804.3952658385265</v>
+        <v>804.3952658385263</v>
       </c>
     </row>
     <row r="33">
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>806.5705040515527</v>
+        <v>806.5705040515523</v>
       </c>
     </row>
     <row r="37">
@@ -1303,7 +1303,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>266.5252418760317</v>
+        <v>266.5252418760376</v>
       </c>
     </row>
     <row r="39">
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>584.5521671300556</v>
+        <v>584.552167130056</v>
       </c>
     </row>
     <row r="40">
@@ -1349,7 +1349,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>567.9523511419288</v>
+        <v>567.9523511419387</v>
       </c>
     </row>
     <row r="41">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1126.21608940235</v>
+        <v>1126.216089402347</v>
       </c>
     </row>
     <row r="42">
@@ -1395,7 +1395,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>818.1793526530853</v>
+        <v>818.1793526530962</v>
       </c>
     </row>
     <row r="43">
@@ -1418,7 +1418,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1578.619524922482</v>
+        <v>1578.619524922479</v>
       </c>
     </row>
     <row r="44">
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>793.884761340546</v>
+        <v>793.8847613405588</v>
       </c>
     </row>
     <row r="45">
@@ -1464,7 +1464,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1580.368252568983</v>
+        <v>1580.36825256898</v>
       </c>
     </row>
     <row r="46">
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>782.5229898467251</v>
+        <v>782.5229898467379</v>
       </c>
     </row>
     <row r="47">
@@ -1510,7 +1510,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1585.259808063971</v>
+        <v>1585.259808063967</v>
       </c>
     </row>
     <row r="48">
@@ -1533,7 +1533,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>795.7744375164306</v>
+        <v>795.7744375164431</v>
       </c>
     </row>
     <row r="49">
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1588.548971149496</v>
+        <v>1588.548971149493</v>
       </c>
     </row>
     <row r="50">
@@ -1579,7 +1579,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>266.493025461466</v>
+        <v>266.493025461468</v>
       </c>
     </row>
     <row r="51">
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>568.0104116955761</v>
+        <v>568.0104116955799</v>
       </c>
     </row>
     <row r="53">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>813.4568609152533</v>
+        <v>813.4568609152609</v>
       </c>
     </row>
     <row r="55">
@@ -1694,7 +1694,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1576.730847417498</v>
+        <v>1576.730847417499</v>
       </c>
     </row>
     <row r="56">
@@ -1717,7 +1717,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>793.5419290246449</v>
+        <v>793.5419290246531</v>
       </c>
     </row>
     <row r="57">
@@ -1740,7 +1740,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1576.557761611098</v>
+        <v>1576.557761611099</v>
       </c>
     </row>
     <row r="58">
@@ -1763,7 +1763,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>782.0719234318454</v>
+        <v>782.0719234318537</v>
       </c>
     </row>
     <row r="59">
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1581.448554684217</v>
+        <v>1581.448554684218</v>
       </c>
     </row>
     <row r="60">
@@ -1809,7 +1809,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>795.3342777448964</v>
+        <v>795.3342777449046</v>
       </c>
     </row>
     <row r="61">
@@ -1855,7 +1855,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>266.3889820864334</v>
+        <v>266.3889820864327</v>
       </c>
     </row>
     <row r="63">
@@ -1901,7 +1901,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>566.5281526569044</v>
+        <v>566.5281526569033</v>
       </c>
     </row>
     <row r="65">
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>818.012350348838</v>
+        <v>818.0123503488376</v>
       </c>
     </row>
     <row r="67">
@@ -1993,7 +1993,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>797.7061678009501</v>
+        <v>797.7061678009497</v>
       </c>
     </row>
     <row r="69">
@@ -2039,7 +2039,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>791.5612899806403</v>
+        <v>791.5612899806395</v>
       </c>
     </row>
     <row r="71">
@@ -2131,7 +2131,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>261.6127993072445</v>
+        <v>261.6127993072423</v>
       </c>
     </row>
     <row r="75">
@@ -2177,7 +2177,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>555.7952398488061</v>
+        <v>555.7952398488034</v>
       </c>
     </row>
     <row r="77">
@@ -2223,7 +2223,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>798.0944966132935</v>
+        <v>798.0944966132887</v>
       </c>
     </row>
     <row r="79">
@@ -2269,7 +2269,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>775.5418363286782</v>
+        <v>775.541836328673</v>
       </c>
     </row>
     <row r="81">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>767.3292755626093</v>
+        <v>767.3292755626042</v>
       </c>
     </row>
     <row r="83">
@@ -2361,7 +2361,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>782.444235317495</v>
+        <v>782.4442353174898</v>
       </c>
     </row>
     <row r="85">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>272.4147849066766</v>
+        <v>272.4147849066733</v>
       </c>
     </row>
     <row r="87">
@@ -2430,7 +2430,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>644.977890076085</v>
+        <v>644.9778900760817</v>
       </c>
     </row>
     <row r="88">
@@ -2453,7 +2453,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>574.0673792294887</v>
+        <v>574.0673792294839</v>
       </c>
     </row>
     <row r="89">
@@ -2476,7 +2476,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>1264.585175950042</v>
+        <v>1264.585175950039</v>
       </c>
     </row>
     <row r="90">
@@ -2499,7 +2499,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>841.2972881187195</v>
+        <v>841.2972881187146</v>
       </c>
     </row>
     <row r="91">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1728.556128643161</v>
+        <v>1728.55612864316</v>
       </c>
     </row>
     <row r="92">
@@ -2545,7 +2545,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1034.035194554008</v>
+        <v>1034.035194554007</v>
       </c>
     </row>
     <row r="93">
@@ -2591,7 +2591,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>813.1085178566777</v>
+        <v>813.108517856671</v>
       </c>
     </row>
     <row r="95">
@@ -2614,7 +2614,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1733.603986354047</v>
+        <v>1733.603986354046</v>
       </c>
     </row>
     <row r="96">
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>828.9730477921944</v>
+        <v>828.9730477921889</v>
       </c>
     </row>
     <row r="97">
@@ -2660,7 +2660,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1739.110052210357</v>
+        <v>1739.110052210355</v>
       </c>
     </row>
     <row r="98">
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>266.6157337158559</v>
+        <v>266.6157337158561</v>
       </c>
     </row>
     <row r="99">
@@ -2729,7 +2729,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>567.1029886302007</v>
+        <v>567.102988630201</v>
       </c>
     </row>
     <row r="101">
@@ -2775,7 +2775,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>808.3267200468703</v>
+        <v>808.3267200468705</v>
       </c>
     </row>
     <row r="103">
@@ -2798,7 +2798,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1574.902498208719</v>
+        <v>1574.902498208721</v>
       </c>
     </row>
     <row r="104">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>785.4098339593266</v>
+        <v>785.4098339593273</v>
       </c>
     </row>
     <row r="105">
@@ -2844,7 +2844,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>1576.594940625634</v>
+        <v>1576.594940625636</v>
       </c>
     </row>
     <row r="106">
@@ -2867,7 +2867,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>910.1570174712722</v>
+        <v>910.1570174712725</v>
       </c>
     </row>
     <row r="107">
@@ -2890,7 +2890,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>1586.070034305073</v>
+        <v>1586.070034305075</v>
       </c>
     </row>
     <row r="108">
@@ -2913,7 +2913,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>927.6537306076442</v>
+        <v>927.6537306076445</v>
       </c>
     </row>
     <row r="109">
@@ -2936,7 +2936,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1588.836127551935</v>
+        <v>1588.836127551937</v>
       </c>
     </row>
     <row r="110">
@@ -2959,7 +2959,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>266.9437071860634</v>
+        <v>266.9437071860679</v>
       </c>
     </row>
     <row r="111">
@@ -3005,7 +3005,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>564.6747183214746</v>
+        <v>564.6747183214767</v>
       </c>
     </row>
     <row r="113">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1247.991080168496</v>
+        <v>1247.991080168495</v>
       </c>
     </row>
     <row r="114">
@@ -3051,7 +3051,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>818.2605260362026</v>
+        <v>818.2605260362086</v>
       </c>
     </row>
     <row r="115">
@@ -3074,7 +3074,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>1566.603472635826</v>
+        <v>1566.603472635824</v>
       </c>
     </row>
     <row r="116">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>793.5246273194169</v>
+        <v>793.5246273194244</v>
       </c>
     </row>
     <row r="117">
@@ -3120,7 +3120,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1568.299161055903</v>
+        <v>1568.299161055901</v>
       </c>
     </row>
     <row r="118">
@@ -3143,7 +3143,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>782.197186499091</v>
+        <v>782.1971864990984</v>
       </c>
     </row>
     <row r="119">
@@ -3166,7 +3166,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1573.03771034495</v>
+        <v>1573.037710344948</v>
       </c>
     </row>
     <row r="120">
@@ -3189,7 +3189,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>795.5405910393049</v>
+        <v>795.5405910393119</v>
       </c>
     </row>
     <row r="121">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1576.190679413407</v>
+        <v>1576.190679413405</v>
       </c>
     </row>
     <row r="122">
@@ -3235,7 +3235,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>266.527672368178</v>
+        <v>266.5276723681793</v>
       </c>
     </row>
     <row r="123">
@@ -3258,7 +3258,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>584.5536604936383</v>
+        <v>584.5536604936384</v>
       </c>
     </row>
     <row r="124">
@@ -3281,7 +3281,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>567.7037498232244</v>
+        <v>567.7037498232255</v>
       </c>
     </row>
     <row r="125">
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>817.991243800941</v>
+        <v>817.9912438009436</v>
       </c>
     </row>
     <row r="127">
@@ -3350,7 +3350,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1572.195023406673</v>
+        <v>1572.195023406674</v>
       </c>
     </row>
     <row r="128">
@@ -3373,7 +3373,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>793.3354613206849</v>
+        <v>793.3354613206874</v>
       </c>
     </row>
     <row r="129">
@@ -3419,7 +3419,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>783.5242883693209</v>
+        <v>783.5242883693231</v>
       </c>
     </row>
     <row r="131">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1674.850640197047</v>
+        <v>1674.850640197048</v>
       </c>
     </row>
     <row r="132">
@@ -3465,7 +3465,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>796.7313223230165</v>
+        <v>796.7313223230198</v>
       </c>
     </row>
     <row r="133">
@@ -3511,7 +3511,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>233.0783992990184</v>
+        <v>233.0783992990185</v>
       </c>
     </row>
     <row r="135">
@@ -3603,7 +3603,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>724.0398665406586</v>
+        <v>724.0398665406584</v>
       </c>
     </row>
     <row r="139">
@@ -3626,7 +3626,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>1434.683157889213</v>
+        <v>1434.683157889212</v>
       </c>
     </row>
     <row r="140">
@@ -3695,7 +3695,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>688.3316671916409</v>
+        <v>688.3316671916407</v>
       </c>
     </row>
     <row r="143">
@@ -3718,7 +3718,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1440.372515638714</v>
+        <v>1440.372515638713</v>
       </c>
     </row>
     <row r="144">
@@ -3741,7 +3741,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>700.2573101176423</v>
+        <v>700.2573101176421</v>
       </c>
     </row>
     <row r="145">
@@ -3764,7 +3764,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>1443.573517806859</v>
+        <v>1443.573517806858</v>
       </c>
     </row>
     <row r="146">
@@ -3787,7 +3787,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>233.4162861885447</v>
+        <v>233.4162861885439</v>
       </c>
     </row>
     <row r="147">
@@ -3833,7 +3833,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>577.6098722051498</v>
+        <v>577.6098722051493</v>
       </c>
     </row>
     <row r="149">
@@ -3879,7 +3879,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>1064.661654732782</v>
+        <v>1064.661654731995</v>
       </c>
     </row>
     <row r="151">
@@ -3925,7 +3925,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>1061.497562789269</v>
+        <v>1061.49756278927</v>
       </c>
     </row>
     <row r="153">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1050.469062963524</v>
+        <v>1050.469062964313</v>
       </c>
     </row>
     <row r="155">
@@ -4017,7 +4017,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>1051.545880453863</v>
+        <v>1051.545880453864</v>
       </c>
     </row>
     <row r="157">
@@ -4063,7 +4063,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>438.4136642368634</v>
+        <v>443.5581633122617</v>
       </c>
     </row>
     <row r="159">
@@ -4086,7 +4086,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>731.9012905667892</v>
+        <v>732.2695648967738</v>
       </c>
     </row>
     <row r="160">
@@ -4109,7 +4109,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>787.141001920739</v>
+        <v>793.774860127618</v>
       </c>
     </row>
     <row r="161">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>1387.600814453697</v>
+        <v>1387.87508270595</v>
       </c>
     </row>
     <row r="162">
@@ -4155,7 +4155,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>846.435409249136</v>
+        <v>852.0323127596539</v>
       </c>
     </row>
     <row r="163">
@@ -4178,7 +4178,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1792.629209515803</v>
+        <v>1811.359407020379</v>
       </c>
     </row>
     <row r="164">
@@ -4201,7 +4201,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>825.8474602042784</v>
+        <v>830.5105738161905</v>
       </c>
     </row>
     <row r="165">
@@ -4224,7 +4224,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1794.439249164185</v>
+        <v>1813.143494101459</v>
       </c>
     </row>
     <row r="166">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>802.3549575850599</v>
+        <v>818.1074879816121</v>
       </c>
     </row>
     <row r="167">
@@ -4270,7 +4270,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>1800.013883097765</v>
+        <v>1817.743937572714</v>
       </c>
     </row>
     <row r="168">
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>814.8916692289715</v>
+        <v>827.7742181176412</v>
       </c>
     </row>
     <row r="169">
@@ -4316,7 +4316,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1803.811903345444</v>
+        <v>1821.554632609486</v>
       </c>
     </row>
     <row r="170">
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>255.9702156987713</v>
+        <v>255.9702156987711</v>
       </c>
     </row>
     <row r="171">
@@ -4362,7 +4362,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>590.3515712426745</v>
+        <v>590.3515712426746</v>
       </c>
     </row>
     <row r="172">
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>549.369448299513</v>
+        <v>549.3694482995126</v>
       </c>
     </row>
     <row r="173">
@@ -4431,7 +4431,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>790.9462765796133</v>
+        <v>790.946276579613</v>
       </c>
     </row>
     <row r="175">
@@ -4477,7 +4477,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>771.3617748906125</v>
+        <v>771.3617748906128</v>
       </c>
     </row>
     <row r="177">
@@ -4500,7 +4500,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1517.870728559661</v>
+        <v>1517.870728559662</v>
       </c>
     </row>
     <row r="178">
@@ -4523,7 +4523,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>764.0200175228416</v>
+        <v>764.0200175228408</v>
       </c>
     </row>
     <row r="179">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>1521.748491809716</v>
+        <v>1521.748491809717</v>
       </c>
     </row>
     <row r="180">
@@ -4569,7 +4569,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>778.3968694238484</v>
+        <v>778.3968694238481</v>
       </c>
     </row>
     <row r="181">
@@ -4661,7 +4661,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>560.7005766872621</v>
+        <v>560.7005766872624</v>
       </c>
     </row>
     <row r="185">
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>806.0270739693462</v>
+        <v>806.0270739693466</v>
       </c>
     </row>
     <row r="187">
@@ -4753,7 +4753,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>783.0044954324228</v>
+        <v>783.0044954324231</v>
       </c>
     </row>
     <row r="189">
@@ -4799,7 +4799,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>772.3046625696611</v>
+        <v>772.3046625696614</v>
       </c>
     </row>
     <row r="191">
@@ -4822,7 +4822,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>1569.275547246881</v>
+        <v>1569.275547246882</v>
       </c>
     </row>
     <row r="192">
@@ -4845,7 +4845,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>782.0710500932452</v>
+        <v>782.0710500932455</v>
       </c>
     </row>
     <row r="193">

--- a/visualizations/elec_consumption_per_scenario_year.xlsx
+++ b/visualizations/elec_consumption_per_scenario_year.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>568.3031969045588</v>
+        <v>568.4902597926091</v>
       </c>
     </row>
     <row r="5">
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1138.084705596556</v>
+        <v>1139.766268301551</v>
       </c>
     </row>
     <row r="6">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>822.6583685186977</v>
+        <v>823.2802693407343</v>
       </c>
     </row>
     <row r="7">
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1591.959256233602</v>
+        <v>1594.013796692082</v>
       </c>
     </row>
     <row r="8">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>798.4185687038254</v>
+        <v>799.0002230031886</v>
       </c>
     </row>
     <row r="9">
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1593.279222385182</v>
+        <v>1595.345338468358</v>
       </c>
     </row>
     <row r="10">
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>784.7213323311188</v>
+        <v>785.2446625171522</v>
       </c>
     </row>
     <row r="11">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1599.003192125524</v>
+        <v>1601.090599027755</v>
       </c>
     </row>
     <row r="12">
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>798.3620021341485</v>
+        <v>798.9359212090858</v>
       </c>
     </row>
     <row r="13">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1601.601417551153</v>
+        <v>1603.671480984599</v>
       </c>
     </row>
     <row r="14">
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>261.1119832521837</v>
+        <v>261.1120468875801</v>
       </c>
     </row>
     <row r="15">
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>562.3685987719035</v>
+        <v>562.5238705533825</v>
       </c>
     </row>
     <row r="17">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1140.322901981712</v>
+        <v>1142.055142189808</v>
       </c>
     </row>
     <row r="18">
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>815.2919130311675</v>
+        <v>815.8501563949849</v>
       </c>
     </row>
     <row r="19">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1595.876529662637</v>
+        <v>1597.91305722943</v>
       </c>
     </row>
     <row r="20">
@@ -889,7 +889,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>792.6675021731323</v>
+        <v>793.2337537137101</v>
       </c>
     </row>
     <row r="21">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1597.639516383547</v>
+        <v>1599.688461527692</v>
       </c>
     </row>
     <row r="22">
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>779.5726222778434</v>
+        <v>780.104557150735</v>
       </c>
     </row>
     <row r="23">
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1601.893258683152</v>
+        <v>1603.946170334838</v>
       </c>
     </row>
     <row r="24">
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>792.9109258261734</v>
+        <v>793.4750570504293</v>
       </c>
     </row>
     <row r="25">
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1604.282444559665</v>
+        <v>1606.386228403118</v>
       </c>
     </row>
     <row r="26">
@@ -1073,7 +1073,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>575.7824101366771</v>
+        <v>575.9913107787663</v>
       </c>
     </row>
     <row r="29">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1135.865662445898</v>
+        <v>1137.564165019724</v>
       </c>
     </row>
     <row r="30">
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>830.9612424783135</v>
+        <v>831.5371949522885</v>
       </c>
     </row>
     <row r="31">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1589.307429294764</v>
+        <v>1591.333875595983</v>
       </c>
     </row>
     <row r="32">
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>805.4111085580353</v>
+        <v>806.0064575015191</v>
       </c>
     </row>
     <row r="33">
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1590.63109625125</v>
+        <v>1592.682488517465</v>
       </c>
     </row>
     <row r="34">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>791.4512641490289</v>
+        <v>792.0068267920497</v>
       </c>
     </row>
     <row r="35">
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1595.114478605587</v>
+        <v>1597.171684197497</v>
       </c>
     </row>
     <row r="36">
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>805.4662892070177</v>
+        <v>806.0642950070389</v>
       </c>
     </row>
     <row r="37">
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1599.369812517097</v>
+        <v>1601.428423793406</v>
       </c>
     </row>
     <row r="38">
@@ -1349,7 +1349,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>568.300472806019</v>
+        <v>568.4882163644062</v>
       </c>
     </row>
     <row r="41">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1138.084622053519</v>
+        <v>1139.766262779078</v>
       </c>
     </row>
     <row r="42">
@@ -1395,7 +1395,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>822.6431022442982</v>
+        <v>823.2625085874054</v>
       </c>
     </row>
     <row r="43">
@@ -1418,7 +1418,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1591.960612694952</v>
+        <v>1594.015445166575</v>
       </c>
     </row>
     <row r="44">
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>798.4185687038254</v>
+        <v>799.0002230031886</v>
       </c>
     </row>
     <row r="45">
@@ -1464,7 +1464,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1593.279222385182</v>
+        <v>1595.345338468358</v>
       </c>
     </row>
     <row r="46">
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>784.720364707249</v>
+        <v>785.2424860437224</v>
       </c>
     </row>
     <row r="47">
@@ -1510,7 +1510,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1599.003192125524</v>
+        <v>1601.090599027755</v>
       </c>
     </row>
     <row r="48">
@@ -1533,7 +1533,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>798.3580926725425</v>
+        <v>798.9311765218526</v>
       </c>
     </row>
     <row r="49">
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1601.601417551153</v>
+        <v>1603.671480984599</v>
       </c>
     </row>
     <row r="50">
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>568.6154079297662</v>
+        <v>568.8049942249328</v>
       </c>
     </row>
     <row r="53">
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1138.086528131764</v>
+        <v>1139.770064738212</v>
       </c>
     </row>
     <row r="54">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>817.9285910277504</v>
+        <v>818.4654518587981</v>
       </c>
     </row>
     <row r="55">
@@ -1694,7 +1694,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1593.94762347701</v>
+        <v>1595.997616656678</v>
       </c>
     </row>
     <row r="56">
@@ -1717,7 +1717,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>798.6295182042003</v>
+        <v>799.2124108986854</v>
       </c>
     </row>
     <row r="57">
@@ -1740,7 +1740,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1593.279222385182</v>
+        <v>1595.345338468358</v>
       </c>
     </row>
     <row r="58">
@@ -1763,7 +1763,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>784.7213323311188</v>
+        <v>785.2446625171522</v>
       </c>
     </row>
     <row r="59">
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1599.003192125524</v>
+        <v>1601.090599027755</v>
       </c>
     </row>
     <row r="60">
@@ -1809,7 +1809,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>798.3620021341485</v>
+        <v>798.9359212090858</v>
       </c>
     </row>
     <row r="61">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1601.601417551153</v>
+        <v>1603.671480984599</v>
       </c>
     </row>
     <row r="62">
@@ -1901,7 +1901,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>576.199706338037</v>
+        <v>576.2215015133684</v>
       </c>
     </row>
     <row r="65">
@@ -1924,7 +1924,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1199.312891217262</v>
+        <v>1200.608829704937</v>
       </c>
     </row>
     <row r="66">
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>844.0911720402254</v>
+        <v>844.6949632524801</v>
       </c>
     </row>
     <row r="67">
@@ -1970,7 +1970,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1656.776965304502</v>
+        <v>1658.383600596551</v>
       </c>
     </row>
     <row r="68">
@@ -1993,7 +1993,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>824.0527538288998</v>
+        <v>824.6638995687468</v>
       </c>
     </row>
     <row r="69">
@@ -2016,7 +2016,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1658.050065622494</v>
+        <v>1659.665976754334</v>
       </c>
     </row>
     <row r="70">
@@ -2039,7 +2039,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>815.1986100568367</v>
+        <v>815.8623340273451</v>
       </c>
     </row>
     <row r="71">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>1661.001973329178</v>
+        <v>1662.620375367892</v>
       </c>
     </row>
     <row r="72">
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>829.4832389844645</v>
+        <v>830.0942592384522</v>
       </c>
     </row>
     <row r="73">
@@ -2108,7 +2108,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1664.741232446001</v>
+        <v>1666.344857118145</v>
       </c>
     </row>
     <row r="74">
@@ -2131,7 +2131,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>262.0060352927949</v>
+        <v>262.0059988628166</v>
       </c>
     </row>
     <row r="75">
@@ -2154,7 +2154,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>597.535491080905</v>
+        <v>597.5354910809048</v>
       </c>
     </row>
     <row r="76">
@@ -2177,7 +2177,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>562.4868218841323</v>
+        <v>562.6605968516213</v>
       </c>
     </row>
     <row r="77">
@@ -2200,7 +2200,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1137.492804824448</v>
+        <v>1139.233380510267</v>
       </c>
     </row>
     <row r="78">
@@ -2223,7 +2223,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>811.7715399478437</v>
+        <v>812.3758044034214</v>
       </c>
     </row>
     <row r="79">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1593.459064733011</v>
+        <v>1595.496311452467</v>
       </c>
     </row>
     <row r="80">
@@ -2269,7 +2269,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>788.4017304617131</v>
+        <v>789.0136333750592</v>
       </c>
     </row>
     <row r="81">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1595.99667637964</v>
+        <v>1598.045570764096</v>
       </c>
     </row>
     <row r="82">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>777.2232866377707</v>
+        <v>777.7382988893243</v>
       </c>
     </row>
     <row r="83">
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>1600.272104975715</v>
+        <v>1602.330839978176</v>
       </c>
     </row>
     <row r="84">
@@ -2361,7 +2361,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>793.6318140509482</v>
+        <v>794.2029064254768</v>
       </c>
     </row>
     <row r="85">
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1604.704466708529</v>
+        <v>1606.789771267637</v>
       </c>
     </row>
     <row r="86">
@@ -2453,7 +2453,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>568.3031969045588</v>
+        <v>568.4902597926091</v>
       </c>
     </row>
     <row r="89">
@@ -2476,7 +2476,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>1138.084705596556</v>
+        <v>1139.766268301551</v>
       </c>
     </row>
     <row r="90">
@@ -2499,7 +2499,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>813.792887951285</v>
+        <v>814.3227415573292</v>
       </c>
     </row>
     <row r="91">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1591.838691420414</v>
+        <v>1593.888955920055</v>
       </c>
     </row>
     <row r="92">
@@ -2545,7 +2545,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1011.434419649873</v>
+        <v>1011.941409774661</v>
       </c>
     </row>
     <row r="93">
@@ -2568,7 +2568,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1623.330549907092</v>
+        <v>1625.436249726383</v>
       </c>
     </row>
     <row r="94">
@@ -2591,7 +2591,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>782.5949510898355</v>
+        <v>783.15208447652</v>
       </c>
     </row>
     <row r="95">
@@ -2614,7 +2614,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1597.823952138596</v>
+        <v>1599.911978525802</v>
       </c>
     </row>
     <row r="96">
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>798.3620021341485</v>
+        <v>798.9359212090858</v>
       </c>
     </row>
     <row r="97">
@@ -2660,7 +2660,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1601.601417551153</v>
+        <v>1603.671480984599</v>
       </c>
     </row>
     <row r="98">
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>588.7388926830475</v>
+        <v>588.7388926830474</v>
       </c>
     </row>
     <row r="100">
@@ -2729,7 +2729,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>568.3031969045588</v>
+        <v>568.4902597926091</v>
       </c>
     </row>
     <row r="101">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>1138.084705596556</v>
+        <v>1139.766268301551</v>
       </c>
     </row>
     <row r="102">
@@ -2775,7 +2775,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>822.6583685186972</v>
+        <v>823.2802693407343</v>
       </c>
     </row>
     <row r="103">
@@ -2798,7 +2798,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1591.959256233602</v>
+        <v>1594.013796692082</v>
       </c>
     </row>
     <row r="104">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>800.2211548822557</v>
+        <v>800.7648181837318</v>
       </c>
     </row>
     <row r="105">
@@ -2844,7 +2844,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>1593.28089947837</v>
+        <v>1595.347092296785</v>
       </c>
     </row>
     <row r="106">
@@ -2867,7 +2867,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>931.1519134321762</v>
+        <v>931.8859496303958</v>
       </c>
     </row>
     <row r="107">
@@ -2890,7 +2890,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>1602.401668368904</v>
+        <v>1604.512000105526</v>
       </c>
     </row>
     <row r="108">
@@ -2913,7 +2913,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>945.7467420676489</v>
+        <v>946.5635581635885</v>
       </c>
     </row>
     <row r="109">
@@ -2936,7 +2936,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1605.236880619684</v>
+        <v>1607.321770945728</v>
       </c>
     </row>
     <row r="110">
@@ -3005,7 +3005,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>567.0941922708025</v>
+        <v>567.2160600906625</v>
       </c>
     </row>
     <row r="113">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1279.038690261723</v>
+        <v>1280.915899694834</v>
       </c>
     </row>
     <row r="114">
@@ -3051,7 +3051,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>823.1046613603067</v>
+        <v>823.7266514125082</v>
       </c>
     </row>
     <row r="115">
@@ -3074,7 +3074,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>1591.993528473002</v>
+        <v>1594.048720886183</v>
       </c>
     </row>
     <row r="116">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>798.4185687038254</v>
+        <v>799.0002230031886</v>
       </c>
     </row>
     <row r="117">
@@ -3120,7 +3120,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1593.279222385182</v>
+        <v>1595.345338468358</v>
       </c>
     </row>
     <row r="118">
@@ -3143,7 +3143,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>784.7213323311188</v>
+        <v>785.2446625171522</v>
       </c>
     </row>
     <row r="119">
@@ -3166,7 +3166,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1599.003192125524</v>
+        <v>1601.090599027755</v>
       </c>
     </row>
     <row r="120">
@@ -3189,7 +3189,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>798.3620021341485</v>
+        <v>798.9359212090858</v>
       </c>
     </row>
     <row r="121">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1601.601417551153</v>
+        <v>1603.671480984599</v>
       </c>
     </row>
     <row r="122">
@@ -3258,7 +3258,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>588.7388926830475</v>
+        <v>588.7388926830474</v>
       </c>
     </row>
     <row r="124">
@@ -3281,7 +3281,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>568.3031969045588</v>
+        <v>568.4902597926091</v>
       </c>
     </row>
     <row r="125">
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>1138.084705596556</v>
+        <v>1139.766268301551</v>
       </c>
     </row>
     <row r="126">
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>822.6583685186972</v>
+        <v>823.2802693407343</v>
       </c>
     </row>
     <row r="127">
@@ -3350,7 +3350,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1591.959256233602</v>
+        <v>1594.013796692082</v>
       </c>
     </row>
     <row r="128">
@@ -3373,7 +3373,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>798.4185687038254</v>
+        <v>799.0002230031886</v>
       </c>
     </row>
     <row r="129">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1593.279222385182</v>
+        <v>1595.345338468358</v>
       </c>
     </row>
     <row r="130">
@@ -3419,7 +3419,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>786.016682267711</v>
+        <v>786.5285848866808</v>
       </c>
     </row>
     <row r="131">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1695.087774570009</v>
+        <v>1697.142111498262</v>
       </c>
     </row>
     <row r="132">
@@ -3465,7 +3465,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>799.7178772823753</v>
+        <v>800.2849464954049</v>
       </c>
     </row>
     <row r="133">
@@ -3488,7 +3488,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1698.232077993366</v>
+        <v>1700.30318756358</v>
       </c>
     </row>
     <row r="134">
@@ -3534,7 +3534,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>521.9048014148008</v>
+        <v>521.9048014148007</v>
       </c>
     </row>
     <row r="136">
@@ -3557,7 +3557,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>490.9225692378666</v>
+        <v>491.2325626969288</v>
       </c>
     </row>
     <row r="137">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1003.647345641206</v>
+        <v>1005.160690528356</v>
       </c>
     </row>
     <row r="138">
@@ -3603,7 +3603,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>704.2813261979675</v>
+        <v>704.5348300086781</v>
       </c>
     </row>
     <row r="139">
@@ -3626,7 +3626,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>1400.936280821169</v>
+        <v>1402.876427288483</v>
       </c>
     </row>
     <row r="140">
@@ -3649,7 +3649,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>678.8047778715645</v>
+        <v>678.9752290948547</v>
       </c>
     </row>
     <row r="141">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>1403.070416104234</v>
+        <v>1405.018166783798</v>
       </c>
     </row>
     <row r="142">
@@ -3695,7 +3695,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>672.3052914826385</v>
+        <v>672.3372715486574</v>
       </c>
     </row>
     <row r="143">
@@ -3718,7 +3718,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1409.28284175697</v>
+        <v>1411.238514946728</v>
       </c>
     </row>
     <row r="144">
@@ -3741,7 +3741,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>673.184965641498</v>
+        <v>673.305202047119</v>
       </c>
     </row>
     <row r="145">
@@ -3764,7 +3764,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>1412.007099162633</v>
+        <v>1414.072734393594</v>
       </c>
     </row>
     <row r="146">
@@ -3787,7 +3787,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>385.602444335318</v>
+        <v>385.6024443353179</v>
       </c>
     </row>
     <row r="147">
@@ -3810,7 +3810,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>589.3420431170506</v>
+        <v>589.3420431170505</v>
       </c>
     </row>
     <row r="148">
@@ -3833,7 +3833,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>722.7843932129678</v>
+        <v>722.7739868506654</v>
       </c>
     </row>
     <row r="149">
@@ -3856,7 +3856,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>1162.889024920684</v>
+        <v>1164.705574358105</v>
       </c>
     </row>
     <row r="150">
@@ -3879,7 +3879,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>997.3407318135136</v>
+        <v>997.7004282575947</v>
       </c>
     </row>
     <row r="151">
@@ -3902,7 +3902,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>1617.19048983242</v>
+        <v>1619.277422235019</v>
       </c>
     </row>
     <row r="152">
@@ -3925,7 +3925,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>992.6467455249217</v>
+        <v>993.0010512560475</v>
       </c>
     </row>
     <row r="153">
@@ -3948,7 +3948,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>1620.042166575259</v>
+        <v>1622.147475471568</v>
       </c>
     </row>
     <row r="154">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>992.8616359138301</v>
+        <v>993.154223921842</v>
       </c>
     </row>
     <row r="155">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1626.294110045317</v>
+        <v>1628.391173709284</v>
       </c>
     </row>
     <row r="156">
@@ -4017,7 +4017,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>999.5232181149173</v>
+        <v>999.8741143725027</v>
       </c>
     </row>
     <row r="157">
@@ -4040,7 +4040,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>1628.530900856951</v>
+        <v>1630.621912241622</v>
       </c>
     </row>
     <row r="158">
@@ -4063,7 +4063,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>385.602444335318</v>
+        <v>385.6024443353179</v>
       </c>
     </row>
     <row r="159">
@@ -4086,7 +4086,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>589.3420431170506</v>
+        <v>589.3420431170505</v>
       </c>
     </row>
     <row r="160">
@@ -4109,7 +4109,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>724.338239315126</v>
+        <v>724.3322164805235</v>
       </c>
     </row>
     <row r="161">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>1165.303569795076</v>
+        <v>1167.115047520176</v>
       </c>
     </row>
     <row r="162">
@@ -4155,7 +4155,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>831.7573869819553</v>
+        <v>832.3361403105076</v>
       </c>
     </row>
     <row r="163">
@@ -4178,7 +4178,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1591.040816960993</v>
+        <v>1593.115158449551</v>
       </c>
     </row>
     <row r="164">
@@ -4201,7 +4201,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>810.7946384384499</v>
+        <v>810.2819922008957</v>
       </c>
     </row>
     <row r="165">
@@ -4224,7 +4224,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1592.598846520262</v>
+        <v>1594.653877667057</v>
       </c>
     </row>
     <row r="166">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>783.7884225682686</v>
+        <v>794.7692450064702</v>
       </c>
     </row>
     <row r="167">
@@ -4270,7 +4270,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>1598.989122198674</v>
+        <v>1598.591589651847</v>
       </c>
     </row>
     <row r="168">
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>798.3620021341485</v>
+        <v>805.9038825795736</v>
       </c>
     </row>
     <row r="169">
@@ -4316,7 +4316,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1601.601417551153</v>
+        <v>1601.768382533062</v>
       </c>
     </row>
     <row r="170">
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>256.7462131366061</v>
+        <v>256.7462371379194</v>
       </c>
     </row>
     <row r="171">
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>557.2949012108271</v>
+        <v>557.4713150743431</v>
       </c>
     </row>
     <row r="173">
@@ -4408,7 +4408,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>1138.901235803043</v>
+        <v>1140.614396428162</v>
       </c>
     </row>
     <row r="174">
@@ -4431,7 +4431,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>805.2173725347996</v>
+        <v>805.7855705545535</v>
       </c>
     </row>
     <row r="175">
@@ -4454,7 +4454,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>1595.793776942017</v>
+        <v>1597.844374281448</v>
       </c>
     </row>
     <row r="176">
@@ -4477,7 +4477,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>785.02315340363</v>
+        <v>785.6100464520013</v>
       </c>
     </row>
     <row r="177">
@@ -4500,7 +4500,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1597.487828128421</v>
+        <v>1599.56332631371</v>
       </c>
     </row>
     <row r="178">
@@ -4523,7 +4523,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>774.2978905678409</v>
+        <v>774.8051862557777</v>
       </c>
     </row>
     <row r="179">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>1601.997050816618</v>
+        <v>1604.064172115791</v>
       </c>
     </row>
     <row r="180">
@@ -4569,7 +4569,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>790.4901586538208</v>
+        <v>791.0599592261632</v>
       </c>
     </row>
     <row r="181">
@@ -4592,7 +4592,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>1605.631346573842</v>
+        <v>1607.729647726737</v>
       </c>
     </row>
     <row r="182">
@@ -4638,7 +4638,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>588.7388926830475</v>
+        <v>588.7388926830474</v>
       </c>
     </row>
     <row r="184">
@@ -4661,7 +4661,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>568.3031969045588</v>
+        <v>568.4902597926091</v>
       </c>
     </row>
     <row r="185">
@@ -4684,7 +4684,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>1138.084705596556</v>
+        <v>1139.766268301551</v>
       </c>
     </row>
     <row r="186">
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>822.6583685186972</v>
+        <v>823.2802693407343</v>
       </c>
     </row>
     <row r="187">
@@ -4730,7 +4730,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>1591.959256233602</v>
+        <v>1594.013796692082</v>
       </c>
     </row>
     <row r="188">
@@ -4753,7 +4753,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>798.4185687038254</v>
+        <v>799.0002230031886</v>
       </c>
     </row>
     <row r="189">
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>1593.279222385182</v>
+        <v>1595.345338468358</v>
       </c>
     </row>
     <row r="190">
@@ -4799,7 +4799,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>784.7213323311188</v>
+        <v>785.2446625171522</v>
       </c>
     </row>
     <row r="191">
@@ -4822,7 +4822,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>1599.003192125524</v>
+        <v>1601.090599027755</v>
       </c>
     </row>
     <row r="192">
@@ -4845,7 +4845,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>798.3620021341485</v>
+        <v>798.9359212090858</v>
       </c>
     </row>
     <row r="193">
@@ -4868,7 +4868,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>1601.601417551153</v>
+        <v>1603.671480984599</v>
       </c>
     </row>
   </sheetData>
